--- a/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
+++ b/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\PMyabukikenC\内部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harukawa\Documents\GitHub\PMyabukikenC\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,11 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
-    <sheet name="処理" sheetId="8" r:id="rId2"/>
-    <sheet name="物理データ" sheetId="12" r:id="rId3"/>
+    <sheet name="処理1" sheetId="18" r:id="rId2"/>
+    <sheet name="処理2" sheetId="8" r:id="rId3"/>
+    <sheet name="物理データ" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">処理!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">処理1!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">処理2!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_内部!$A$1:$Q$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -202,17 +204,6 @@
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>苗字</t>
-    <rPh sb="0" eb="2">
-      <t>ミョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -446,6 +437,68 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産者ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産者パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザパスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産者の写真</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産者の氏名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産者がいる生産地</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産者の声（デフォルトメッセージ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の名前</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の出荷日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の生産者の声</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>春川</t>
+    <rPh sb="0" eb="2">
+      <t>ハルカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -909,7 +962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,58 +1122,94 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,34 +1239,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1214,13 +1282,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvPr id="2" name="フローチャート : 定義済み処理 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="291353" y="1927413"/>
-          <a:ext cx="1367117" cy="437028"/>
+          <a:off x="287991" y="1961031"/>
+          <a:ext cx="1353670" cy="443751"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1285,13 +1353,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="フローチャート : 定義済み処理 28"/>
+        <xdr:cNvPr id="3" name="フローチャート : 定義済み処理 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="291353" y="2577354"/>
-          <a:ext cx="1366431" cy="437028"/>
+          <a:off x="287991" y="2624419"/>
+          <a:ext cx="1352984" cy="443751"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1366,16 +1434,16 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="カギ線コネクタ 29"/>
+        <xdr:cNvPr id="4" name="カギ線コネクタ 3"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="2"/>
-          <a:endCxn id="28" idx="0"/>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="868676" y="1820737"/>
-          <a:ext cx="212913" cy="439"/>
+          <a:off x="853548" y="1852674"/>
+          <a:ext cx="216275" cy="439"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1416,16 +1484,16 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="カギ線コネクタ 30"/>
+        <xdr:cNvPr id="5" name="カギ線コネクタ 4"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="2"/>
-          <a:endCxn id="29" idx="0"/>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="868284" y="2470727"/>
-          <a:ext cx="212913" cy="343"/>
+          <a:off x="851475" y="2514430"/>
+          <a:ext cx="219637" cy="343"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1468,16 +1536,16 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="カギ線コネクタ 31"/>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="2"/>
-          <a:endCxn id="40" idx="0"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="873888" y="3115063"/>
-          <a:ext cx="201706" cy="344"/>
+          <a:off x="857079" y="3172213"/>
+          <a:ext cx="208430" cy="344"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1520,16 +1588,16 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="カギ線コネクタ 32"/>
+        <xdr:cNvPr id="7" name="カギ線コネクタ 6"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="2"/>
-          <a:endCxn id="35" idx="0"/>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="885266" y="3877236"/>
-          <a:ext cx="190500" cy="11206"/>
+          <a:off x="870138" y="3949514"/>
+          <a:ext cx="193862" cy="11206"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1572,7 +1640,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="グループ化 33"/>
+        <xdr:cNvPr id="8" name="グループ化 7"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1585,7 +1653,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="ひし形 34"/>
+          <xdr:cNvPr id="9" name="ひし形 8"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1635,7 +1703,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1711,13 +1779,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="フローチャート : 定義済み処理 36"/>
+        <xdr:cNvPr id="11" name="フローチャート : 定義済み処理 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="302559" y="4751294"/>
-          <a:ext cx="1366431" cy="437028"/>
+          <a:off x="299197" y="4842062"/>
+          <a:ext cx="1352984" cy="443751"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1790,28 +1858,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>134129</xdr:colOff>
+      <xdr:colOff>134128</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:rowOff>156884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>134473</xdr:colOff>
+      <xdr:colOff>134472</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="カギ線コネクタ 37"/>
+        <xdr:cNvPr id="12" name="カギ線コネクタ 11"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="2"/>
-          <a:endCxn id="37" idx="0"/>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="885096" y="4650269"/>
-          <a:ext cx="201704" cy="344"/>
+          <a:off x="868286" y="4737676"/>
+          <a:ext cx="208428" cy="344"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1854,7 +1922,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="39" name="グループ化 38"/>
+        <xdr:cNvPr id="13" name="グループ化 12"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1867,7 +1935,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="ひし形 39"/>
+          <xdr:cNvPr id="14" name="ひし形 13"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1917,7 +1985,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+          <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1973,26 +2041,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>224119</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>705284</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21726</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>123263</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="フローチャート : 定義済み処理 41"/>
+        <xdr:cNvPr id="16" name="フローチャート : 定義済み処理 41"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1759324" y="4751294"/>
-          <a:ext cx="1366431" cy="437028"/>
+          <a:off x="4186519" y="4842062"/>
+          <a:ext cx="1359707" cy="443751"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2070,23 +2138,23 @@
       <xdr:rowOff>117663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22069</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122923</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="カギ線コネクタ 42"/>
+        <xdr:cNvPr id="17" name="カギ線コネクタ 16"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="3"/>
-          <a:endCxn id="42" idx="0"/>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="16" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1658471" y="3501839"/>
-          <a:ext cx="784069" cy="1249455"/>
+          <a:off x="1641662" y="3565713"/>
+          <a:ext cx="3224711" cy="1276349"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2120,23 +2188,23 @@
       <xdr:rowOff>39222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22069</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122923</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="カギ線コネクタ 43"/>
+        <xdr:cNvPr id="18" name="カギ線コネクタ 17"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="3"/>
-          <a:endCxn id="42" idx="0"/>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="16" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1669677" y="4263840"/>
-          <a:ext cx="772863" cy="487454"/>
+          <a:off x="1652868" y="4344522"/>
+          <a:ext cx="3213505" cy="497540"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2172,12 +2240,12 @@
     <xdr:ext cx="363689" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="997323" y="3709146"/>
+          <a:off x="983876" y="3776381"/>
           <a:ext cx="363689" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2231,12 +2299,12 @@
     <xdr:ext cx="363689" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="997323" y="4459941"/>
+          <a:off x="983876" y="4543985"/>
           <a:ext cx="363689" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2290,12 +2358,12 @@
     <xdr:ext cx="317203" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1602441" y="3260911"/>
+          <a:off x="1588994" y="3321423"/>
           <a:ext cx="317203" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2349,12 +2417,12 @@
     <xdr:ext cx="317203" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1602441" y="4034118"/>
+          <a:off x="1588994" y="4108077"/>
           <a:ext cx="317203" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2413,13 +2481,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="フローチャート : 手操作入力 51"/>
+        <xdr:cNvPr id="23" name="フローチャート : 手操作入力 51"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="291351" y="1288677"/>
-          <a:ext cx="1368000" cy="425823"/>
+          <a:off x="287989" y="1308848"/>
+          <a:ext cx="1354553" cy="435908"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -2484,13 +2552,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート : 磁気ディスク 1"/>
+        <xdr:cNvPr id="24" name="フローチャート : 磁気ディスク 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1804147" y="2566147"/>
-          <a:ext cx="1368000" cy="448236"/>
+          <a:off x="1787338" y="2613212"/>
+          <a:ext cx="1364638" cy="454959"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2557,13 +2625,13 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="カギ線コネクタ 24"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="3"/>
-          <a:endCxn id="2" idx="2"/>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="24" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1657784" y="2790265"/>
+          <a:off x="1640975" y="2840691"/>
           <a:ext cx="146363" cy="5603"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2592,6 +2660,797 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>918883</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="フローチャート : 手操作入力 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9586631" y="3206003"/>
+          <a:ext cx="762002" cy="275665"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ボタン押下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156884</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>918884</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="フローチャート : 定義済み処理 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9586634" y="3619501"/>
+          <a:ext cx="762000" cy="283508"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168090</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>918884</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="グループ化 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9648266" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
+          <a:chOff x="336178" y="3787589"/>
+          <a:chExt cx="1367117" cy="571501"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="ひし形 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="336178" y="3787589"/>
+            <a:ext cx="1367117" cy="571501"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="398523" y="3888442"/>
+            <a:ext cx="1229363" cy="392415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>判断</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>941295</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9609045" y="4588809"/>
+          <a:ext cx="762000" cy="365312"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>39221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>896471</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>39221</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="カギ線コネクタ 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9642662" y="5373221"/>
+          <a:ext cx="683559" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53958</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>145556</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4179795" y="5188322"/>
+          <a:ext cx="1432281" cy="694646"/>
+          <a:chOff x="2810242" y="4412192"/>
+          <a:chExt cx="1432281" cy="694646"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="16" idx="2"/>
+            <a:endCxn id="35" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3403768" y="4534808"/>
+            <a:ext cx="245925" cy="693"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="フローチャート : 定義済み処理 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2810242" y="4658117"/>
+            <a:ext cx="1432281" cy="448721"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ログイン画面の</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>表示</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>582019</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100851</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="フローチャート : 定義済み処理 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="1905000"/>
+          <a:ext cx="1363069" cy="443751"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>商品一覧画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>593226</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="フローチャート : 定義済み処理 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7138148" y="4919382"/>
+          <a:ext cx="1366431" cy="437028"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>商品紹介画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -2986,6 +3845,84 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>716490</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="フローチャート : 定義済み処理 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="986118" y="1692089"/>
+          <a:ext cx="1366431" cy="437028"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>生産者アカウント画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3296,7 +4233,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -3312,12 +4249,12 @@
       <c r="M1" s="39"/>
       <c r="N1" s="39"/>
       <c r="O1" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="89">
+        <v>27</v>
+      </c>
+      <c r="P1" s="72">
         <v>42174</v>
       </c>
-      <c r="Q1" s="53"/>
+      <c r="Q1" s="73"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
@@ -3334,11 +4271,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
+      <c r="O2" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="75"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
@@ -3383,17 +4320,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
+      <c r="E5" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -3404,15 +4341,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -3423,15 +4360,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -3479,19 +4416,19 @@
       <c r="A10" s="40"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="D10" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="41"/>
@@ -3500,17 +4437,17 @@
       <c r="A11" s="40"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="41"/>
@@ -3519,17 +4456,17 @@
       <c r="A12" s="40"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="41"/>
@@ -3539,17 +4476,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
+      <c r="E13" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -3560,15 +4497,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -3579,15 +4516,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -3598,15 +4535,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3617,15 +4554,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3656,15 +4593,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
+      <c r="F19" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
       <c r="M19" s="37"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3677,13 +4614,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="37"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3696,13 +4633,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
       <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3715,13 +4652,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
       <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3734,13 +4671,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
       <c r="M23" s="37"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3753,13 +4690,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="37"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3772,13 +4709,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="37"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3832,16 +4769,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
+      <c r="I28" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="69"/>
       <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -3853,22 +4790,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="54" t="s">
+      <c r="I29" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="P29" s="60"/>
+      <c r="P29" s="71"/>
       <c r="Q29" s="41"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -3886,10 +4823,10 @@
       <c r="L30" s="57"/>
       <c r="M30" s="57"/>
       <c r="N30" s="57"/>
-      <c r="O30" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="P30" s="82"/>
+      <c r="O30" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="61"/>
       <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -3907,8 +4844,8 @@
       <c r="L31" s="57"/>
       <c r="M31" s="57"/>
       <c r="N31" s="57"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="84"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63"/>
       <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -3926,8 +4863,8 @@
       <c r="L32" s="57"/>
       <c r="M32" s="57"/>
       <c r="N32" s="57"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="84"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
       <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -3945,8 +4882,8 @@
       <c r="L33" s="57"/>
       <c r="M33" s="57"/>
       <c r="N33" s="57"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="84"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
       <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -3964,8 +4901,8 @@
       <c r="L34" s="57"/>
       <c r="M34" s="57"/>
       <c r="N34" s="57"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="84"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="63"/>
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3983,8 +4920,8 @@
       <c r="L35" s="59"/>
       <c r="M35" s="59"/>
       <c r="N35" s="59"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="86"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="65"/>
       <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4041,7 +4978,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4056,40 +4993,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74" t="e">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="4" t="s">
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="54" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42174</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4155,54 +5092,54 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="57">
-        <v>3</v>
-      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="31" t="s">
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="57" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="57"/>
       <c r="G7" s="57"/>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="31" t="s">
+      <c r="I7" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -4402,7 +5339,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -4638,7 +5575,779 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="35" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="35" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -4809,7 +6518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4817,7 +6526,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4832,26 +6541,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74" t="e">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
@@ -4862,10 +6571,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42174</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4976,24 +6685,24 @@
       <c r="D8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="94"/>
+      <c r="G8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="30" t="s">
+      <c r="I8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="80" t="s">
+      <c r="J8" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -5007,14 +6716,16 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="76"/>
+      <c r="E9" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="93"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="76"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -5028,14 +6739,16 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="76"/>
+      <c r="E10" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="93"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="76"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -5049,14 +6762,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="76"/>
+      <c r="E11" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="93"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="76"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -5070,14 +6785,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="76"/>
+      <c r="E12" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="93"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="76"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -5091,14 +6808,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="93"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -5112,14 +6831,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="76"/>
+      <c r="E14" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="93"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="76"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -5133,14 +6854,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="76"/>
+      <c r="E15" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="93"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="76"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="88"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -5154,14 +6877,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="93"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="76"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="88"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -5175,14 +6900,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="76"/>
+      <c r="E17" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="93"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -5196,14 +6923,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="76"/>
+      <c r="E18" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="93"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="76"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="88"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -5217,14 +6946,16 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="76"/>
+      <c r="E19" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="93"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="88"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5238,14 +6969,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="76"/>
+      <c r="E20" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="93"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="76"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="88"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5259,14 +6992,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="76"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="88"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="76"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="88"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5280,14 +7013,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="76"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="88"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="76"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="88"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5301,14 +7034,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="76"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="88"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="76"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="88"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5322,14 +7055,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="76"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="88"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="76"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="88"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5343,14 +7076,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="74"/>
-      <c r="F25" s="76"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="88"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="76"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="88"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5364,14 +7097,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="76"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="88"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="76"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="88"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>

--- a/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
+++ b/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harukawa\Documents\GitHub\PMyabukikenC\内部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\PMyabukikenC\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -286,45 +286,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>承認印欄（承認日も記入）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウニンイン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発注元PM</t>
-    <rPh sb="0" eb="2">
-      <t>ハッチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受注先PM</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　　目次
 　　　　　　１．システム処理設計書
 　　　　　　２．物理データ設計書</t>
@@ -353,22 +314,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発注元が承認を得る</t>
-    <rPh sb="0" eb="2">
-      <t>ハッチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内　部　設　計　書</t>
     <rPh sb="0" eb="1">
       <t>ナイ</t>
@@ -384,19 +329,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>川手元稀</t>
-    <rPh sb="0" eb="2">
-      <t>カワテ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -723,6 +655,27 @@
     <t>12桁まで入力可能</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>田隈広紀様</t>
+    <rPh sb="0" eb="2">
+      <t>タクマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒロノリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認印欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -815,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1051,21 +1004,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1076,66 +1014,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1177,13 +1055,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,52 +1394,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,11 +1427,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1487,7 +1478,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,11 +1490,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1847,8 +1886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="952501" y="4112558"/>
-          <a:ext cx="1367117" cy="571501"/>
+          <a:off x="866283" y="3796687"/>
+          <a:ext cx="1255932" cy="527865"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -1910,8 +1949,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="398523" y="3888442"/>
-            <a:ext cx="1229363" cy="392415"/>
+            <a:off x="398523" y="3832414"/>
+            <a:ext cx="1229363" cy="504264"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1958,7 +1997,7 @@
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>正誤確認</a:t>
+              <a:t>正誤</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2109,8 +2148,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="952503" y="3238500"/>
-          <a:ext cx="1367117" cy="571501"/>
+          <a:off x="866285" y="2988878"/>
+          <a:ext cx="1255932" cy="527865"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -2959,8 +2998,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9648266" y="3955677"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="8841936" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3204,8 +3243,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4179795" y="5188322"/>
-          <a:ext cx="1432281" cy="694646"/>
+          <a:off x="3826765" y="4790894"/>
+          <a:ext cx="1313543" cy="641799"/>
           <a:chOff x="2810242" y="4412192"/>
           <a:chExt cx="1432281" cy="694646"/>
         </a:xfrm>
@@ -3868,8 +3907,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="896470" y="4829736"/>
-          <a:ext cx="1490383" cy="705970"/>
+          <a:off x="815586" y="4458351"/>
+          <a:ext cx="1368149" cy="652742"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3961,7 +4000,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
@@ -4257,8 +4296,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9648266" y="3955677"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="8841936" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -5940,8 +5979,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1714500" y="4639236"/>
-          <a:ext cx="1367117" cy="571501"/>
+          <a:off x="1565865" y="4283158"/>
+          <a:ext cx="1255932" cy="527865"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -8621,8 +8660,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9648266" y="3955677"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="8841936" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -10475,7 +10514,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:N12"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10489,7 +10528,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -10507,10 +10546,10 @@
       <c r="O1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="81">
-        <v>42174</v>
-      </c>
-      <c r="Q1" s="82"/>
+      <c r="P1" s="67">
+        <v>42188</v>
+      </c>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="39"/>
@@ -10527,11 +10566,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="84"/>
+      <c r="O2" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="39"/>
@@ -10576,17 +10615,17 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -10597,15 +10636,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10616,15 +10655,15 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10672,19 +10711,19 @@
       <c r="A10" s="39"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
+      <c r="D10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="40"/>
@@ -10693,17 +10732,17 @@
       <c r="A11" s="39"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="40"/>
@@ -10712,17 +10751,17 @@
       <c r="A12" s="39"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="40"/>
@@ -10732,17 +10771,17 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
+      <c r="E13" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -10753,15 +10792,15 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -10772,15 +10811,15 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -10791,15 +10830,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -10810,15 +10849,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -10849,15 +10888,15 @@
       <c r="C19" s="15"/>
       <c r="D19" s="2"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
+      <c r="F19" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
       <c r="M19" s="36"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10870,13 +10909,13 @@
       <c r="C20" s="15"/>
       <c r="D20" s="2"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
       <c r="M20" s="36"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10889,13 +10928,13 @@
       <c r="C21" s="15"/>
       <c r="D21" s="2"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
       <c r="M21" s="36"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10908,13 +10947,13 @@
       <c r="C22" s="15"/>
       <c r="D22" s="2"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
       <c r="M22" s="36"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10927,13 +10966,13 @@
       <c r="C23" s="15"/>
       <c r="D23" s="2"/>
       <c r="E23" s="36"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
       <c r="M23" s="36"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10946,13 +10985,13 @@
       <c r="C24" s="15"/>
       <c r="D24" s="2"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
       <c r="M24" s="36"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10965,13 +11004,13 @@
       <c r="C25" s="15"/>
       <c r="D25" s="2"/>
       <c r="E25" s="36"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
       <c r="M25" s="36"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -11016,7 +11055,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="40"/>
     </row>
-    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -11025,16 +11064,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="78"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="107"/>
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -11046,22 +11085,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75" t="s">
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75" t="s">
+      <c r="L29" s="113"/>
+      <c r="M29" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29" s="66"/>
+      <c r="O29" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="P29" s="80"/>
+      <c r="P29" s="104"/>
       <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -11073,16 +11110,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="P30" s="70"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="79"/>
       <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -11094,14 +11129,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="72"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="81"/>
       <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -11113,14 +11148,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="72"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="81"/>
       <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11132,14 +11167,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="72"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="81"/>
       <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11151,14 +11186,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="72"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="81"/>
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11170,14 +11205,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="74"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="83"/>
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11201,7 +11236,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="P1:Q1"/>
@@ -11210,12 +11250,7 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
+    <mergeCell ref="K28:P28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11234,7 +11269,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11249,25 +11284,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="53" t="s">
         <v>2</v>
       </c>
@@ -11278,7 +11313,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -11347,58 +11382,841 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="I6" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
       <c r="L6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="I7" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="18">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12005,15 +12823,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12028,36 +12846,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="64" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -12126,62 +12944,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="30" t="s">
+      <c r="I6" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="30" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="30" t="s">
+      <c r="I7" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12766,796 +13580,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="18">
-        <v>42188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13590,25 +13625,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -13619,7 +13654,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -13688,62 +13723,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="I6" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
       <c r="L6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
+      <c r="M6" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="I7" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="M7" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -14328,17 +14363,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14355,10 +14390,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14373,25 +14408,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
@@ -14402,13 +14437,15 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P2" s="8"/>
+    </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
@@ -14491,10 +14528,10 @@
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
@@ -14516,10 +14553,10 @@
       <c r="D8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="29" t="s">
         <v>19</v>
       </c>
@@ -14529,11 +14566,11 @@
       <c r="I8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="101" t="s">
+      <c r="J8" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="2"/>
@@ -14547,22 +14584,22 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="103"/>
+      <c r="E9" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="96"/>
       <c r="G9" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="97"/>
+        <v>43</v>
+      </c>
+      <c r="J9" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="2"/>
@@ -14576,20 +14613,20 @@
         <f t="shared" ref="D10:D14" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="103"/>
+      <c r="E10" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="96"/>
       <c r="G10" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="97"/>
+      <c r="J10" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2"/>
@@ -14603,20 +14640,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="102" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="103"/>
+      <c r="E11" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="96"/>
       <c r="G11" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
+        <v>42</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="2"/>
@@ -14630,18 +14667,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="103"/>
+      <c r="E12" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="96"/>
       <c r="G12" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="2"/>
@@ -14655,18 +14692,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="103"/>
+      <c r="E13" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="96"/>
       <c r="G13" s="25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="2"/>
@@ -14680,18 +14717,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="103"/>
+      <c r="E14" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="96"/>
       <c r="G14" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="2"/>
@@ -14706,22 +14743,24 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="26"/>
@@ -14746,8 +14785,9 @@
       </c>
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -14755,23 +14795,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F18" s="59"/>
       <c r="G18" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="105"/>
+        <v>49</v>
+      </c>
+      <c r="J18" s="65"/>
       <c r="K18" s="56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L18" s="57"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -14779,36 +14820,39 @@
         <v>2</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="55"/>
       <c r="K19" s="56" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L19" s="57"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -14833,8 +14877,9 @@
       </c>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -14842,23 +14887,24 @@
         <v>1</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F23" s="59"/>
       <c r="G23" s="25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J23" s="55"/>
       <c r="K23" s="56" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L23" s="57"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -14866,19 +14912,20 @@
         <v>2</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F24" s="59"/>
       <c r="G24" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="55"/>
       <c r="K24" s="56"/>
       <c r="L24" s="57"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -14886,183 +14933,158 @@
         <v>3</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="55"/>
       <c r="K25" s="56"/>
       <c r="L25" s="57"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="28">
         <v>4</v>
       </c>
-      <c r="E26" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="103"/>
+      <c r="E26" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="96"/>
       <c r="G26" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="55"/>
       <c r="K26" s="56"/>
       <c r="L26" s="57"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="28">
         <v>5</v>
       </c>
-      <c r="E27" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="103"/>
+      <c r="E27" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="96"/>
       <c r="G27" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J27" s="55"/>
       <c r="K27" s="56" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L27" s="57"/>
       <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q43" s="104"/>
-      <c r="R43" s="104"/>
-      <c r="S43" s="104"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q44" s="104"/>
-      <c r="R44" s="104"/>
-      <c r="S44" s="104"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q45" s="104"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="104"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q46" s="104"/>
-      <c r="R46" s="104"/>
-      <c r="S46" s="104"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q47" s="104"/>
-      <c r="R47" s="104"/>
-      <c r="S47" s="104"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q48" s="104"/>
-      <c r="R48" s="104"/>
-      <c r="S48" s="104"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
+  <mergeCells count="19">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E13:F13"/>
@@ -15070,14 +15092,18 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>

--- a/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
+++ b/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -384,19 +384,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>川手元稀</t>
-    <rPh sb="0" eb="2">
-      <t>カワテ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1379,6 +1366,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1498,9 +1488,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4257,8 +4244,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9648266" y="3955677"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="8841936" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -5940,8 +5927,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1714500" y="4639236"/>
-          <a:ext cx="1367117" cy="571501"/>
+          <a:off x="1565865" y="4283158"/>
+          <a:ext cx="1255932" cy="527865"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -10474,8 +10461,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:N12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10488,9 +10475,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>32</v>
-      </c>
+      <c r="A1" s="45"/>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="38"/>
@@ -10507,10 +10492,10 @@
       <c r="O1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="81">
+      <c r="P1" s="82">
         <v>42174</v>
       </c>
-      <c r="Q1" s="82"/>
+      <c r="Q1" s="83"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="39"/>
@@ -10527,11 +10512,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="84"/>
+      <c r="O2" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="39"/>
@@ -10576,17 +10561,17 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -10597,15 +10582,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10616,15 +10601,15 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10672,19 +10657,19 @@
       <c r="A10" s="39"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
+      <c r="D10" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="40"/>
@@ -10693,17 +10678,17 @@
       <c r="A11" s="39"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="40"/>
@@ -10712,17 +10697,17 @@
       <c r="A12" s="39"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="40"/>
@@ -10732,17 +10717,17 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -10753,15 +10738,15 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -10772,15 +10757,15 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -10791,15 +10776,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -10810,15 +10795,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -10849,15 +10834,15 @@
       <c r="C19" s="15"/>
       <c r="D19" s="2"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="89" t="s">
+      <c r="F19" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
       <c r="M19" s="36"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10870,13 +10855,13 @@
       <c r="C20" s="15"/>
       <c r="D20" s="2"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="36"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10889,13 +10874,13 @@
       <c r="C21" s="15"/>
       <c r="D21" s="2"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="36"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10908,13 +10893,13 @@
       <c r="C22" s="15"/>
       <c r="D22" s="2"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="36"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10927,13 +10912,13 @@
       <c r="C23" s="15"/>
       <c r="D23" s="2"/>
       <c r="E23" s="36"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
       <c r="M23" s="36"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10946,13 +10931,13 @@
       <c r="C24" s="15"/>
       <c r="D24" s="2"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
       <c r="M24" s="36"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10965,13 +10950,13 @@
       <c r="C25" s="15"/>
       <c r="D25" s="2"/>
       <c r="E25" s="36"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
       <c r="M25" s="36"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -11025,16 +11010,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="76" t="s">
+      <c r="I28" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="79"/>
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -11046,22 +11031,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="79" t="s">
+      <c r="I29" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75" t="s">
+      <c r="J29" s="76"/>
+      <c r="K29" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75" t="s">
+      <c r="L29" s="76"/>
+      <c r="M29" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75" t="s">
+      <c r="N29" s="76"/>
+      <c r="O29" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="P29" s="80"/>
+      <c r="P29" s="81"/>
       <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -11073,16 +11058,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="69" t="s">
+      <c r="I30" s="66"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="70"/>
+      <c r="P30" s="71"/>
       <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -11094,14 +11079,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="72"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="73"/>
       <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -11113,14 +11098,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="72"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="73"/>
       <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11132,14 +11117,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="72"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="73"/>
       <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11151,14 +11136,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="72"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="73"/>
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11170,14 +11155,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="74"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="75"/>
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11249,25 +11234,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
       <c r="L1" s="53" t="s">
         <v>2</v>
       </c>
@@ -11278,7 +11263,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -11347,58 +11332,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="I6" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
       <c r="L6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="I7" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
       <c r="L7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12012,7 +11997,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -12028,25 +12013,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
       <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
@@ -12057,7 +12042,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -12126,62 +12111,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="I6" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
       <c r="L6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
+      <c r="M6" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="I7" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
       <c r="L7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="M7" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12811,25 +12796,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -12840,7 +12825,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -12909,58 +12894,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="I6" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
       <c r="L6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="I7" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
       <c r="L7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -13590,25 +13575,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -13619,7 +13604,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -13688,62 +13673,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="I6" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
       <c r="L6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
+      <c r="M6" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="I7" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
       <c r="L7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="M7" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -14357,7 +14342,7 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -14373,25 +14358,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
       <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
@@ -14402,7 +14387,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -14491,10 +14476,10 @@
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
@@ -14516,10 +14501,10 @@
       <c r="D8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="29" t="s">
         <v>19</v>
       </c>
@@ -14529,11 +14514,11 @@
       <c r="I8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="101" t="s">
+      <c r="J8" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="2"/>
@@ -14547,22 +14532,22 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="103"/>
+      <c r="E9" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="104"/>
       <c r="G9" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="97"/>
+        <v>47</v>
+      </c>
+      <c r="J9" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="2"/>
@@ -14576,20 +14561,20 @@
         <f t="shared" ref="D10:D14" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="103"/>
+      <c r="E10" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="104"/>
       <c r="G10" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="97"/>
+      <c r="J10" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="97"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2"/>
@@ -14603,20 +14588,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="102" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="103"/>
+      <c r="E11" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="104"/>
       <c r="G11" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
+        <v>46</v>
+      </c>
+      <c r="J11" s="96"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="2"/>
@@ -14630,18 +14615,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="103"/>
+      <c r="E12" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="104"/>
       <c r="G12" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="2"/>
@@ -14655,18 +14640,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="103"/>
+      <c r="E13" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="104"/>
       <c r="G13" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="2"/>
@@ -14680,18 +14665,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="103"/>
+      <c r="E14" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="104"/>
       <c r="G14" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="2"/>
@@ -14711,10 +14696,10 @@
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
@@ -14755,19 +14740,19 @@
         <v>1</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="59"/>
       <c r="G18" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="105"/>
+        <v>53</v>
+      </c>
+      <c r="J18" s="65"/>
       <c r="K18" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L18" s="57"/>
     </row>
@@ -14779,17 +14764,17 @@
         <v>2</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="55"/>
       <c r="K19" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L19" s="57"/>
     </row>
@@ -14802,10 +14787,10 @@
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
@@ -14842,19 +14827,19 @@
         <v>1</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="59"/>
       <c r="G23" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" s="55"/>
       <c r="K23" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L23" s="57"/>
     </row>
@@ -14866,11 +14851,11 @@
         <v>2</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="59"/>
       <c r="G24" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
@@ -14886,11 +14871,11 @@
         <v>3</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
@@ -14905,12 +14890,12 @@
       <c r="D26" s="28">
         <v>4</v>
       </c>
-      <c r="E26" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="103"/>
+      <c r="E26" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="104"/>
       <c r="G26" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
@@ -14925,20 +14910,20 @@
       <c r="D27" s="28">
         <v>5</v>
       </c>
-      <c r="E27" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="103"/>
+      <c r="E27" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="104"/>
       <c r="G27" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J27" s="55"/>
       <c r="K27" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L27" s="57"/>
       <c r="M27" s="2"/>
@@ -15006,51 +14991,47 @@
       <c r="C39" s="17"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q43" s="104"/>
-      <c r="R43" s="104"/>
-      <c r="S43" s="104"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="105"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q44" s="104"/>
-      <c r="R44" s="104"/>
-      <c r="S44" s="104"/>
+      <c r="Q44" s="105"/>
+      <c r="R44" s="105"/>
+      <c r="S44" s="105"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q45" s="104"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="104"/>
+      <c r="Q45" s="105"/>
+      <c r="R45" s="105"/>
+      <c r="S45" s="105"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q46" s="104"/>
-      <c r="R46" s="104"/>
-      <c r="S46" s="104"/>
+      <c r="Q46" s="105"/>
+      <c r="R46" s="105"/>
+      <c r="S46" s="105"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q47" s="104"/>
-      <c r="R47" s="104"/>
-      <c r="S47" s="104"/>
+      <c r="Q47" s="105"/>
+      <c r="R47" s="105"/>
+      <c r="S47" s="105"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q48" s="104"/>
-      <c r="R48" s="104"/>
-      <c r="S48" s="104"/>
+      <c r="Q48" s="105"/>
+      <c r="R48" s="105"/>
+      <c r="S48" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="Q48:S48"/>
     <mergeCell ref="Q45:S45"/>
     <mergeCell ref="Q46:S46"/>
@@ -15061,19 +15042,23 @@
     <mergeCell ref="Q43:S43"/>
     <mergeCell ref="Q44:S44"/>
     <mergeCell ref="H41:J41"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
+++ b/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harukawa\Documents\GitHub\PMyabukikenC\内部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\PMyabukikenC\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -286,45 +286,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>承認印欄（承認日も記入）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウニンイン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発注元PM</t>
-    <rPh sb="0" eb="2">
-      <t>ハッチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受注先PM</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　　目次
 　　　　　　１．システム処理設計書
 　　　　　　２．物理データ設計書</t>
@@ -350,22 +311,6 @@
   </si>
   <si>
     <t>ユーザ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発注元が承認を得る</t>
-    <rPh sb="0" eb="2">
-      <t>ハッチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -710,6 +655,27 @@
     <t>12桁まで入力可能</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>田隈広紀様</t>
+    <rPh sb="0" eb="2">
+      <t>タクマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒロノリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認印欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -802,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1038,21 +1004,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1063,66 +1014,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1164,13 +1055,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,52 +1397,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1444,11 +1427,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1477,7 +1478,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,7 +1490,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1834,8 +1886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="952501" y="4112558"/>
-          <a:ext cx="1367117" cy="571501"/>
+          <a:off x="866283" y="3796687"/>
+          <a:ext cx="1255932" cy="527865"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -1897,8 +1949,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="398523" y="3888442"/>
-            <a:ext cx="1229363" cy="392415"/>
+            <a:off x="398523" y="3832414"/>
+            <a:ext cx="1229363" cy="504264"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1945,7 +1997,7 @@
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>正誤確認</a:t>
+              <a:t>正誤</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2096,8 +2148,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="952503" y="3238500"/>
-          <a:ext cx="1367117" cy="571501"/>
+          <a:off x="866285" y="2988878"/>
+          <a:ext cx="1255932" cy="527865"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -2946,8 +2998,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9648266" y="3955677"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="8841936" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3191,8 +3243,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4179795" y="5188322"/>
-          <a:ext cx="1432281" cy="694646"/>
+          <a:off x="3826765" y="4790894"/>
+          <a:ext cx="1313543" cy="641799"/>
           <a:chOff x="2810242" y="4412192"/>
           <a:chExt cx="1432281" cy="694646"/>
         </a:xfrm>
@@ -3855,8 +3907,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="896470" y="4829736"/>
-          <a:ext cx="1490383" cy="705970"/>
+          <a:off x="815586" y="4458351"/>
+          <a:ext cx="1368149" cy="652742"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3948,7 +4000,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
@@ -8608,8 +8660,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9648266" y="3955677"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="8841936" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -10461,8 +10513,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10475,7 +10527,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="45"/>
+      <c r="A1" s="45" t="s">
+        <v>89</v>
+      </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="38"/>
@@ -10492,10 +10546,10 @@
       <c r="O1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="82">
-        <v>42174</v>
-      </c>
-      <c r="Q1" s="83"/>
+      <c r="P1" s="67">
+        <v>42188</v>
+      </c>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="39"/>
@@ -10512,11 +10566,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
+      <c r="O2" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="39"/>
@@ -10561,17 +10615,17 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -10582,15 +10636,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10601,15 +10655,15 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10657,19 +10711,19 @@
       <c r="A10" s="39"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
+      <c r="D10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="40"/>
@@ -10678,17 +10732,17 @@
       <c r="A11" s="39"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="40"/>
@@ -10697,17 +10751,17 @@
       <c r="A12" s="39"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="40"/>
@@ -10717,17 +10771,17 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
+      <c r="E13" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -10738,15 +10792,15 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -10757,15 +10811,15 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -10776,15 +10830,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -10795,15 +10849,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -10834,15 +10888,15 @@
       <c r="C19" s="15"/>
       <c r="D19" s="2"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
+      <c r="F19" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
       <c r="M19" s="36"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10855,13 +10909,13 @@
       <c r="C20" s="15"/>
       <c r="D20" s="2"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
       <c r="M20" s="36"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10874,13 +10928,13 @@
       <c r="C21" s="15"/>
       <c r="D21" s="2"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
       <c r="M21" s="36"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10893,13 +10947,13 @@
       <c r="C22" s="15"/>
       <c r="D22" s="2"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
       <c r="M22" s="36"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10912,13 +10966,13 @@
       <c r="C23" s="15"/>
       <c r="D23" s="2"/>
       <c r="E23" s="36"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
       <c r="M23" s="36"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10931,13 +10985,13 @@
       <c r="C24" s="15"/>
       <c r="D24" s="2"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
       <c r="M24" s="36"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10950,13 +11004,13 @@
       <c r="C25" s="15"/>
       <c r="D25" s="2"/>
       <c r="E25" s="36"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
       <c r="M25" s="36"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -11001,7 +11055,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="40"/>
     </row>
-    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -11010,16 +11064,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="79"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="107"/>
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -11031,22 +11085,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76" t="s">
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76" t="s">
+      <c r="L29" s="113"/>
+      <c r="M29" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29" s="66"/>
+      <c r="O29" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="P29" s="81"/>
+      <c r="P29" s="104"/>
       <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -11058,16 +11110,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="P30" s="71"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="79"/>
       <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -11079,14 +11129,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="73"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="81"/>
       <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -11098,14 +11148,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="73"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="81"/>
       <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11117,14 +11167,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="73"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="81"/>
       <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11136,14 +11186,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="73"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="81"/>
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11155,14 +11205,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="75"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="83"/>
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11186,7 +11236,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="P1:Q1"/>
@@ -11195,12 +11250,7 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
+    <mergeCell ref="K28:P28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11219,7 +11269,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11234,25 +11284,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="53" t="s">
         <v>2</v>
       </c>
@@ -11263,7 +11313,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -11332,58 +11382,841 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="I6" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
       <c r="L6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
+      <c r="I7" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="18">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -11990,15 +12823,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12013,36 +12846,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="64" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -12111,62 +12944,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="30" t="s">
+      <c r="I6" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="30" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="30" t="s">
+      <c r="I7" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12751,796 +13580,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="18">
-        <v>42188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13575,25 +13625,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -13604,7 +13654,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -13673,62 +13723,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="I6" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
       <c r="L6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
+      <c r="M6" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
+      <c r="I7" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
+      <c r="M7" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -14313,17 +14363,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14340,10 +14390,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14358,25 +14408,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
@@ -14387,13 +14437,15 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P2" s="8"/>
+    </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
@@ -14476,10 +14528,10 @@
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
@@ -14501,10 +14553,10 @@
       <c r="D8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="102"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="29" t="s">
         <v>19</v>
       </c>
@@ -14514,11 +14566,11 @@
       <c r="I8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="2"/>
@@ -14532,22 +14584,22 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="104"/>
+      <c r="E9" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="96"/>
       <c r="G9" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="98"/>
+        <v>43</v>
+      </c>
+      <c r="J9" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="2"/>
@@ -14561,20 +14613,20 @@
         <f t="shared" ref="D10:D14" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="104"/>
+      <c r="E10" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="96"/>
       <c r="G10" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="97"/>
-      <c r="L10" s="98"/>
+      <c r="J10" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2"/>
@@ -14588,20 +14640,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="104"/>
+      <c r="E11" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="96"/>
       <c r="G11" s="25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="96"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="98"/>
+        <v>42</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="2"/>
@@ -14615,18 +14667,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="104"/>
+      <c r="E12" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="96"/>
       <c r="G12" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="2"/>
@@ -14640,18 +14692,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="103" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="104"/>
+      <c r="E13" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="96"/>
       <c r="G13" s="25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="98"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="2"/>
@@ -14665,18 +14717,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="104"/>
+      <c r="E14" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="96"/>
       <c r="G14" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="98"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="2"/>
@@ -14691,22 +14743,24 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="26"/>
@@ -14731,8 +14785,9 @@
       </c>
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -14740,23 +14795,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F18" s="59"/>
       <c r="G18" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J18" s="65"/>
       <c r="K18" s="56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L18" s="57"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -14764,36 +14820,39 @@
         <v>2</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="55"/>
       <c r="K19" s="56" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L19" s="57"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -14818,8 +14877,9 @@
       </c>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -14827,23 +14887,24 @@
         <v>1</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F23" s="59"/>
       <c r="G23" s="25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J23" s="55"/>
       <c r="K23" s="56" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L23" s="57"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -14851,19 +14912,20 @@
         <v>2</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F24" s="59"/>
       <c r="G24" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="55"/>
       <c r="K24" s="56"/>
       <c r="L24" s="57"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -14871,177 +14933,159 @@
         <v>3</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="55"/>
       <c r="K25" s="56"/>
       <c r="L25" s="57"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="28">
         <v>4</v>
       </c>
-      <c r="E26" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="104"/>
+      <c r="E26" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="96"/>
       <c r="G26" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="55"/>
       <c r="K26" s="56"/>
       <c r="L26" s="57"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="28">
         <v>5</v>
       </c>
-      <c r="E27" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="104"/>
+      <c r="E27" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="96"/>
       <c r="G27" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J27" s="55"/>
       <c r="K27" s="56" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L27" s="57"/>
       <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q43" s="105"/>
-      <c r="R43" s="105"/>
-      <c r="S43" s="105"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q44" s="105"/>
-      <c r="R44" s="105"/>
-      <c r="S44" s="105"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q45" s="105"/>
-      <c r="R45" s="105"/>
-      <c r="S45" s="105"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q46" s="105"/>
-      <c r="R46" s="105"/>
-      <c r="S46" s="105"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q47" s="105"/>
-      <c r="R47" s="105"/>
-      <c r="S47" s="105"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
-      <c r="S48" s="105"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="H41:J41"/>
+  <mergeCells count="19">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
@@ -15052,17 +15096,14 @@
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>

--- a/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
+++ b/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\PMyabukikenC\内部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harukawa\Documents\GitHub\PMyabukikenC\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -286,6 +286,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>承認印欄（承認日も記入）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウニンイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発注元PM</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注先PM</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>　　　目次
 　　　　　　１．システム処理設計書
 　　　　　　２．物理データ設計書</t>
@@ -314,6 +353,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>発注元が承認を得る</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>内　部　設　計　書</t>
     <rPh sb="0" eb="1">
       <t>ナイ</t>
@@ -329,6 +384,19 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川手元稀</t>
+    <rPh sb="0" eb="2">
+      <t>カワテ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -655,27 +723,6 @@
     <t>12桁まで入力可能</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>田隈広紀様</t>
-    <rPh sb="0" eb="2">
-      <t>タクマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒロノリ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>承認印欄</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -768,7 +815,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1004,6 +1051,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1014,6 +1076,66 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1055,150 +1177,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1394,10 +1379,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1427,29 +1454,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1478,10 +1487,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,56 +1496,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1886,8 +1847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="866283" y="3796687"/>
-          <a:ext cx="1255932" cy="527865"/>
+          <a:off x="952501" y="4112558"/>
+          <a:ext cx="1367117" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -1949,8 +1910,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="398523" y="3832414"/>
-            <a:ext cx="1229363" cy="504264"/>
+            <a:off x="398523" y="3888442"/>
+            <a:ext cx="1229363" cy="392415"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1997,7 +1958,7 @@
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>正誤</a:t>
+              <a:t>正誤確認</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2148,8 +2109,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="866285" y="2988878"/>
-          <a:ext cx="1255932" cy="527865"/>
+          <a:off x="952503" y="3238500"/>
+          <a:ext cx="1367117" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -2998,8 +2959,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8841936" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="9648266" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3243,8 +3204,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3826765" y="4790894"/>
-          <a:ext cx="1313543" cy="641799"/>
+          <a:off x="4179795" y="5188322"/>
+          <a:ext cx="1432281" cy="694646"/>
           <a:chOff x="2810242" y="4412192"/>
           <a:chExt cx="1432281" cy="694646"/>
         </a:xfrm>
@@ -3907,8 +3868,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="815586" y="4458351"/>
-          <a:ext cx="1368149" cy="652742"/>
+          <a:off x="896470" y="4829736"/>
+          <a:ext cx="1490383" cy="705970"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -4000,7 +3961,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
@@ -4296,8 +4257,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8841936" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="9648266" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -5979,8 +5940,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565865" y="4283158"/>
-          <a:ext cx="1255932" cy="527865"/>
+          <a:off x="1714500" y="4639236"/>
+          <a:ext cx="1367117" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -8660,8 +8621,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8841936" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="9648266" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -10514,7 +10475,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D10" sqref="D10:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10528,7 +10489,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -10546,10 +10507,10 @@
       <c r="O1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="67">
-        <v>42188</v>
-      </c>
-      <c r="Q1" s="68"/>
+      <c r="P1" s="81">
+        <v>42174</v>
+      </c>
+      <c r="Q1" s="82"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="39"/>
@@ -10566,11 +10527,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
+      <c r="O2" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="39"/>
@@ -10615,17 +10576,17 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -10636,15 +10597,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10655,15 +10616,15 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10711,19 +10672,19 @@
       <c r="A10" s="39"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="D10" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="40"/>
@@ -10732,17 +10693,17 @@
       <c r="A11" s="39"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="40"/>
@@ -10751,17 +10712,17 @@
       <c r="A12" s="39"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="40"/>
@@ -10771,17 +10732,17 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
+      <c r="E13" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -10792,15 +10753,15 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -10811,15 +10772,15 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -10830,15 +10791,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -10849,15 +10810,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -10888,15 +10849,15 @@
       <c r="C19" s="15"/>
       <c r="D19" s="2"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
+      <c r="F19" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="36"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10909,13 +10870,13 @@
       <c r="C20" s="15"/>
       <c r="D20" s="2"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
       <c r="M20" s="36"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10928,13 +10889,13 @@
       <c r="C21" s="15"/>
       <c r="D21" s="2"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="36"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10947,13 +10908,13 @@
       <c r="C22" s="15"/>
       <c r="D22" s="2"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
       <c r="M22" s="36"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10966,13 +10927,13 @@
       <c r="C23" s="15"/>
       <c r="D23" s="2"/>
       <c r="E23" s="36"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
       <c r="M23" s="36"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10985,13 +10946,13 @@
       <c r="C24" s="15"/>
       <c r="D24" s="2"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
       <c r="M24" s="36"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -11004,13 +10965,13 @@
       <c r="C25" s="15"/>
       <c r="D25" s="2"/>
       <c r="E25" s="36"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
       <c r="M25" s="36"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -11055,7 +11016,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="40"/>
     </row>
-    <row r="28" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="39"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -11064,16 +11025,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="107"/>
+      <c r="I28" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="78"/>
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -11085,20 +11046,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="112" t="s">
+      <c r="I29" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="113"/>
-      <c r="M29" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="N29" s="66"/>
-      <c r="O29" s="103" t="s">
+      <c r="L29" s="75"/>
+      <c r="M29" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="P29" s="104"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="80"/>
       <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -11110,14 +11073,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="79"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="70"/>
       <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -11129,14 +11094,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="81"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="72"/>
       <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -11148,14 +11113,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="81"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="72"/>
       <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11167,14 +11132,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="81"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="72"/>
       <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11186,14 +11151,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="81"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="72"/>
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11205,14 +11170,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="83"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="74"/>
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11236,12 +11201,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
+    <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="P1:Q1"/>
@@ -11250,7 +11210,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
-    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11269,7 +11234,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11284,25 +11249,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="53" t="s">
         <v>2</v>
       </c>
@@ -11313,7 +11278,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -11382,58 +11347,841 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
+      <c r="I6" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
       <c r="L6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
+      <c r="I7" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
       <c r="L7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="18">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12040,7 +12788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -12048,7 +12796,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12063,36 +12811,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="64" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -12161,62 +12909,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="30" t="s">
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="76" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="30" t="s">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="30" t="s">
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12801,796 +13545,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="18">
-        <v>42188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13625,25 +13590,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -13654,7 +13619,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -13723,62 +13688,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
+      <c r="I6" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
       <c r="L6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
+      <c r="M6" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
+      <c r="I7" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
       <c r="L7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
+      <c r="M7" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -14363,17 +14328,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14390,10 +14355,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14408,25 +14373,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
@@ -14437,15 +14402,13 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P2" s="8"/>
-    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
@@ -14528,10 +14491,10 @@
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
@@ -14553,10 +14516,10 @@
       <c r="D8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="29" t="s">
         <v>19</v>
       </c>
@@ -14566,11 +14529,11 @@
       <c r="I8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="2"/>
@@ -14584,22 +14547,22 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="96"/>
+      <c r="E9" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="103"/>
       <c r="G9" s="25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
+        <v>48</v>
+      </c>
+      <c r="J9" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="96"/>
+      <c r="L9" s="97"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="2"/>
@@ -14613,20 +14576,20 @@
         <f t="shared" ref="D10:D14" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="96"/>
+      <c r="E10" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="103"/>
       <c r="G10" s="25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
+      <c r="J10" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2"/>
@@ -14640,20 +14603,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="96"/>
+      <c r="E11" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="103"/>
       <c r="G11" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
+        <v>47</v>
+      </c>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="2"/>
@@ -14667,18 +14630,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="96"/>
+      <c r="E12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="103"/>
       <c r="G12" s="25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="2"/>
@@ -14692,18 +14655,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="96"/>
+      <c r="E13" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="103"/>
       <c r="G13" s="25" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="2"/>
@@ -14717,18 +14680,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="96"/>
+      <c r="E14" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="103"/>
       <c r="G14" s="25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="2"/>
@@ -14743,24 +14706,22 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="21" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="26"/>
@@ -14785,9 +14746,8 @@
       </c>
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -14795,24 +14755,23 @@
         <v>1</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F18" s="59"/>
       <c r="G18" s="25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="J18" s="105"/>
       <c r="K18" s="56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L18" s="57"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -14820,39 +14779,36 @@
         <v>2</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="55"/>
       <c r="K19" s="56" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L19" s="57"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -14877,9 +14833,8 @@
       </c>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -14887,24 +14842,23 @@
         <v>1</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F23" s="59"/>
       <c r="G23" s="25" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J23" s="55"/>
       <c r="K23" s="56" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L23" s="57"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -14912,20 +14866,19 @@
         <v>2</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F24" s="59"/>
       <c r="G24" s="25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="55"/>
       <c r="K24" s="56"/>
       <c r="L24" s="57"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -14933,158 +14886,183 @@
         <v>3</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="25" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="55"/>
       <c r="K25" s="56"/>
       <c r="L25" s="57"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="28">
         <v>4</v>
       </c>
-      <c r="E26" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="96"/>
+      <c r="E26" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="103"/>
       <c r="G26" s="25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="55"/>
       <c r="K26" s="56"/>
       <c r="L26" s="57"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="28">
         <v>5</v>
       </c>
-      <c r="E27" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="96"/>
+      <c r="E27" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="103"/>
       <c r="G27" s="25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J27" s="55"/>
       <c r="K27" s="56" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L27" s="57"/>
       <c r="M27" s="2"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="M28" s="2"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="M29" s="2"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="P31" s="8"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="Q43" s="104"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="104"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="Q44" s="104"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="104"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="Q45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="Q47" s="104"/>
+      <c r="R47" s="104"/>
+      <c r="S47" s="104"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="Q48" s="104"/>
+      <c r="R48" s="104"/>
+      <c r="S48" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
+  <mergeCells count="27">
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E13:F13"/>
@@ -15092,18 +15070,14 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>

--- a/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
+++ b/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\PMyabukikenC\内部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harukawa\Documents\GitHub\PMyabukikenC\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -402,13 +402,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン失敗</t>
-    <rPh sb="4" eb="6">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>生産者の声（デフォルト）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -518,10 +511,6 @@
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ⅱ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -674,6 +663,14 @@
   </si>
   <si>
     <t>承認印欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ⅱ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1397,7 +1394,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1427,29 +1487,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1478,10 +1529,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,57 +1537,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1886,8 +1883,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="866283" y="3796687"/>
-          <a:ext cx="1255932" cy="527865"/>
+          <a:off x="952501" y="4112558"/>
+          <a:ext cx="1367117" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -2009,14 +2006,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>21726</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2025,7 +2022,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="291354" y="5827059"/>
+          <a:off x="291354" y="5367616"/>
           <a:ext cx="1366431" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -2080,27 +2077,27 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122924</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5604</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>134468</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="カギ線コネクタ 11"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="74" idx="2"/>
+          <a:stCxn id="9" idx="2"/>
           <a:endCxn id="11" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1162440" y="5347836"/>
-          <a:ext cx="291353" cy="667092"/>
+          <a:off x="963537" y="4695092"/>
+          <a:ext cx="683557" cy="661490"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2148,8 +2145,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="866285" y="2988878"/>
-          <a:ext cx="1255932" cy="527865"/>
+          <a:off x="952503" y="3238500"/>
+          <a:ext cx="1367117" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -2262,14 +2259,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>224119</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>291359</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>21726</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88966</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>123263</xdr:rowOff>
     </xdr:to>
@@ -2280,8 +2277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4186519" y="4842062"/>
-          <a:ext cx="1359707" cy="443751"/>
+          <a:off x="7418300" y="4751294"/>
+          <a:ext cx="1366431" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2359,8 +2356,8 @@
       <xdr:rowOff>140075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>122923</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190163</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
@@ -2375,7 +2372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2319620" y="3524251"/>
-          <a:ext cx="2577009" cy="1227043"/>
+          <a:ext cx="5781896" cy="1227043"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2409,8 +2406,8 @@
       <xdr:rowOff>5603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>122923</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190163</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
@@ -2425,7 +2422,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2319618" y="4398309"/>
-          <a:ext cx="2577011" cy="352985"/>
+          <a:ext cx="5781898" cy="352985"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2513,9 +2510,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
+      <xdr:colOff>33617</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>78439</xdr:rowOff>
+      <xdr:rowOff>56027</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="363689" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -2525,7 +2522,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1725706" y="4639233"/>
+          <a:off x="1669676" y="4616821"/>
           <a:ext cx="363689" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2760,16 +2757,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>683562</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>67237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>762882</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:rowOff>11208</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2778,8 +2775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2039471" y="2297206"/>
-          <a:ext cx="1143882" cy="448236"/>
+          <a:off x="4672856" y="2274796"/>
+          <a:ext cx="1232644" cy="448236"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2998,8 +2995,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8841936" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="9648266" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3225,16 +3222,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257740</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>123263</xdr:rowOff>
+      <xdr:rowOff>123262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>53958</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>145556</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121197</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11086</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3243,10 +3240,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3826765" y="4790894"/>
-          <a:ext cx="1313543" cy="641799"/>
-          <a:chOff x="2810242" y="4412192"/>
-          <a:chExt cx="1432281" cy="694646"/>
+          <a:off x="7384681" y="5188321"/>
+          <a:ext cx="1432281" cy="896353"/>
+          <a:chOff x="6239246" y="4367367"/>
+          <a:chExt cx="1432281" cy="896353"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -3259,8 +3256,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000">
-            <a:off x="3403768" y="4534808"/>
-            <a:ext cx="245925" cy="693"/>
+            <a:off x="6731919" y="4590836"/>
+            <a:ext cx="447631" cy="694"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
@@ -3293,7 +3290,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2810242" y="4658117"/>
+            <a:off x="6239246" y="4814999"/>
             <a:ext cx="1432281" cy="448721"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPredefinedProcess">
@@ -3461,16 +3458,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>392205</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>683566</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>44826</xdr:rowOff>
+      <xdr:rowOff>89649</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3479,8 +3476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2028264" y="2812678"/>
-          <a:ext cx="1210235" cy="448236"/>
+          <a:off x="4672860" y="2857501"/>
+          <a:ext cx="1266258" cy="448236"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3528,112 +3525,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>21726</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>403413</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>84044</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="カギ線コネクタ 72"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="2"/>
-          <a:endCxn id="3" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1657785" y="2521324"/>
-          <a:ext cx="381687" cy="274544"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>21725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>84044</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>392205</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>156884</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="カギ線コネクタ 75"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="39" idx="2"/>
-          <a:endCxn id="3" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1657784" y="2795868"/>
-          <a:ext cx="370480" cy="240928"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3693,69 +3584,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>5603</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="74" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1636060" y="4684059"/>
-          <a:ext cx="5602" cy="145677"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>750108</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3764,7 +3601,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1804148" y="5827060"/>
+          <a:off x="1804148" y="5367616"/>
           <a:ext cx="1366431" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -3838,28 +3675,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5603</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>66893</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:colOff>66894</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>134468</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="65" name="カギ線コネクタ 64"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="74" idx="2"/>
+          <a:stCxn id="9" idx="2"/>
           <a:endCxn id="64" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1918836" y="5258532"/>
-          <a:ext cx="291354" cy="845702"/>
+          <a:off x="1719934" y="4600185"/>
+          <a:ext cx="683557" cy="851304"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3887,35 +3724,145 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="986424" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="4796117"/>
+          <a:ext cx="986424" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザーアカウント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="953851" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="358588" y="4818528"/>
+          <a:ext cx="953851" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>生産者アカウント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44830</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>750794</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="72" name="グループ化 71"/>
+        <xdr:cNvPr id="46" name="グループ化 45"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="815586" y="4458351"/>
-          <a:ext cx="1368149" cy="652742"/>
+          <a:off x="2465301" y="2431677"/>
+          <a:ext cx="1848964" cy="705970"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="ひし形 73"/>
+          <xdr:cNvPr id="47" name="ひし形 46"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3965,7 +3912,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="テキスト ボックス 74"/>
+          <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4004,7 +3951,21 @@
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>生産者アカウントかユーザーアカウントか判断</a:t>
+              <a:t>生産者アカウントか</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ユーザーアカウントか判断</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -4012,116 +3973,166 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:colOff>21725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72838</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="986424" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="テキスト ボックス 79"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44830</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1837765" y="5446059"/>
-          <a:ext cx="986424" cy="242374"/>
+        <a:xfrm flipV="1">
+          <a:off x="1657784" y="2784662"/>
+          <a:ext cx="807517" cy="11206"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザーアカウント</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123267</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="953851" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="テキスト ボックス 81"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>683562</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="3"/>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="582706" y="5457264"/>
-          <a:ext cx="953851" cy="242374"/>
+        <a:xfrm flipV="1">
+          <a:off x="4314265" y="2498914"/>
+          <a:ext cx="358591" cy="285748"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>生産者アカウント</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>683566</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="3"/>
+          <a:endCxn id="39" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314265" y="2784662"/>
+          <a:ext cx="358595" cy="296957"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4296,8 +4307,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8841936" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="9648266" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -4608,7 +4619,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>10519</xdr:colOff>
+      <xdr:colOff>235323</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>112057</xdr:rowOff>
     </xdr:to>
@@ -4620,7 +4631,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4202206" y="3899647"/>
-          <a:ext cx="1366431" cy="437028"/>
+          <a:ext cx="1591235" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4663,7 +4674,27 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>生産者プロフィール登録確認画面</a:t>
+            <a:t>生産者プロフィール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>登録確認画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -4685,8 +4716,8 @@
       <xdr:rowOff>156885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>705284</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>89649</xdr:rowOff>
     </xdr:to>
@@ -4698,7 +4729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6465794" y="5726209"/>
-          <a:ext cx="1366431" cy="437028"/>
+          <a:ext cx="1456765" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -5297,7 +5328,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>111717</xdr:colOff>
+      <xdr:colOff>224119</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>48186</xdr:rowOff>
     </xdr:to>
@@ -5311,8 +5342,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4351634" y="4243279"/>
-          <a:ext cx="440393" cy="627185"/>
+          <a:off x="4407835" y="4187078"/>
+          <a:ext cx="440393" cy="739587"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5343,7 +5374,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>111716</xdr:colOff>
+      <xdr:colOff>224118</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>112056</xdr:rowOff>
     </xdr:from>
@@ -5363,8 +5394,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5091783" y="4130313"/>
-          <a:ext cx="433667" cy="846389"/>
+          <a:off x="5147984" y="4186514"/>
+          <a:ext cx="433667" cy="733987"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5395,13 +5426,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
+      <xdr:colOff>268943</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>22068</xdr:colOff>
+      <xdr:colOff>67236</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>156885</xdr:rowOff>
     </xdr:to>
@@ -5410,13 +5441,12 @@
         <xdr:cNvPr id="60" name="カギ線コネクタ 59"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="2"/>
-          <a:endCxn id="17" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5395460" y="3972659"/>
-          <a:ext cx="616326" cy="2890773"/>
+          <a:off x="5418044" y="3950076"/>
+          <a:ext cx="616326" cy="2935940"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5499,15 +5529,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>224119</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>100851</xdr:rowOff>
+      <xdr:colOff>224120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>504267</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>11203</xdr:rowOff>
+      <xdr:colOff>504268</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5516,7 +5546,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1860178" y="5502086"/>
+          <a:off x="1860179" y="4773704"/>
           <a:ext cx="1064560" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
@@ -5655,86 +5685,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>762001</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>78443</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="カギ線コネクタ 111"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="2"/>
-          <a:endCxn id="206" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2291603" y="4532779"/>
-          <a:ext cx="212914" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>756399</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>111716</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>11203</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="115" name="カギ線コネクタ 114"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="108" idx="2"/>
-          <a:endCxn id="16" idx="0"/>
+          <a:stCxn id="206" idx="2"/>
+          <a:endCxn id="16" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2630412" y="3661693"/>
-          <a:ext cx="2017056" cy="2492964"/>
+          <a:off x="2294403" y="4221816"/>
+          <a:ext cx="2011458" cy="1804147"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
+        <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -11333"/>
-            <a:gd name="adj2" fmla="val 46973"/>
-            <a:gd name="adj3" fmla="val 111333"/>
+            <a:gd name="adj1" fmla="val -11365"/>
+            <a:gd name="adj2" fmla="val 68944"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -5761,13 +5738,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
+      <xdr:colOff>257735</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>616322</xdr:colOff>
+      <xdr:colOff>728382</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
@@ -5778,8 +5755,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8135470" y="5748617"/>
-          <a:ext cx="1176617" cy="392206"/>
+          <a:off x="8169088" y="5748617"/>
+          <a:ext cx="1255059" cy="392206"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -5831,14 +5808,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>705284</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>39220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
+      <xdr:colOff>257735</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>39223</xdr:rowOff>
     </xdr:to>
@@ -5852,8 +5829,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7832225" y="5944720"/>
-          <a:ext cx="303245" cy="3"/>
+          <a:off x="7922559" y="5944720"/>
+          <a:ext cx="246529" cy="3"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5963,14 +5940,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>661146</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>145678</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5979,8 +5956,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565865" y="4283158"/>
-          <a:ext cx="1255932" cy="527865"/>
+          <a:off x="1714500" y="5558118"/>
+          <a:ext cx="1367117" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -6134,7 +6111,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>370135</xdr:colOff>
+      <xdr:colOff>280147</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
@@ -6151,8 +6128,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006194" y="2364441"/>
-          <a:ext cx="1176617" cy="392206"/>
+          <a:off x="1916206" y="2364441"/>
+          <a:ext cx="1266605" cy="392206"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -6253,28 +6230,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>756399</xdr:colOff>
+      <xdr:colOff>756400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>145678</xdr:rowOff>
+      <xdr:rowOff>123262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>142313</xdr:rowOff>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="258" name="直線矢印コネクタ 257"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="206" idx="2"/>
-          <a:endCxn id="108" idx="0"/>
+          <a:stCxn id="108" idx="2"/>
+          <a:endCxn id="206" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2392458" y="5210737"/>
-          <a:ext cx="5601" cy="332811"/>
+        <a:xfrm>
+          <a:off x="2392459" y="5188321"/>
+          <a:ext cx="5600" cy="369797"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6329,6 +6306,60 @@
         <a:xfrm flipH="1">
           <a:off x="1131444" y="2700617"/>
           <a:ext cx="5951" cy="302551"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>756400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>86284</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="108" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2392459" y="4426322"/>
+          <a:ext cx="5601" cy="388844"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6948,13 +6979,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>44821</xdr:colOff>
+      <xdr:colOff>56027</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>33622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>772517</xdr:colOff>
+      <xdr:colOff>783723</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>134473</xdr:rowOff>
     </xdr:to>
@@ -6965,7 +6996,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257733" y="5266769"/>
+          <a:off x="268939" y="5266769"/>
           <a:ext cx="1366431" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -7046,13 +7077,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
+      <xdr:colOff>246527</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>279460</xdr:colOff>
+      <xdr:colOff>44134</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>44822</xdr:rowOff>
     </xdr:to>
@@ -7063,7 +7094,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3686735" y="5513294"/>
+          <a:off x="3451409" y="5513294"/>
           <a:ext cx="1366431" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -7144,13 +7175,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>504268</xdr:colOff>
+      <xdr:colOff>470647</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>22419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>100859</xdr:rowOff>
     </xdr:to>
@@ -7161,8 +7192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3709150" y="3910860"/>
-          <a:ext cx="1064560" cy="414617"/>
+          <a:off x="3675529" y="3910860"/>
+          <a:ext cx="1075765" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -7228,7 +7259,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
+      <xdr:colOff>694764</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>134476</xdr:rowOff>
     </xdr:to>
@@ -7240,7 +7271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4952999" y="3910860"/>
-          <a:ext cx="1131795" cy="448234"/>
+          <a:ext cx="1299883" cy="448234"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -7371,32 +7402,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>772521</xdr:colOff>
+      <xdr:colOff>772520</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>39221</xdr:rowOff>
+      <xdr:rowOff>39222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504269</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61640</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="カギ線コネクタ 19"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="1"/>
+          <a:stCxn id="16" idx="2"/>
           <a:endCxn id="13" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1624168" y="1910603"/>
-          <a:ext cx="2084983" cy="2207566"/>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="1711353" y="1823418"/>
+          <a:ext cx="2414874" cy="2589245"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 32801"/>
+            <a:gd name="adj1" fmla="val -9466"/>
+            <a:gd name="adj2" fmla="val 60387"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7423,13 +7455,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>638736</xdr:colOff>
+      <xdr:colOff>414616</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7440,8 +7472,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5412442" y="5546912"/>
-          <a:ext cx="1008529" cy="358588"/>
+          <a:off x="5188322" y="5546912"/>
+          <a:ext cx="1120590" cy="358588"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -7494,13 +7526,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>89301</xdr:colOff>
+      <xdr:colOff>100507</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>63881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>252135</xdr:colOff>
+      <xdr:colOff>246531</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>134473</xdr:rowOff>
     </xdr:to>
@@ -7509,19 +7541,18 @@
         <xdr:cNvPr id="22" name="カギ線コネクタ 21"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="2"/>
-          <a:endCxn id="16" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1715451" y="3177819"/>
-          <a:ext cx="1751475" cy="3300481"/>
+          <a:off x="1718252" y="3186224"/>
+          <a:ext cx="1751475" cy="3283671"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -13052"/>
-            <a:gd name="adj2" fmla="val 52287"/>
-            <a:gd name="adj3" fmla="val 113052"/>
+            <a:gd name="adj1" fmla="val -12412"/>
+            <a:gd name="adj2" fmla="val 60915"/>
+            <a:gd name="adj3" fmla="val 156558"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7548,13 +7579,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>89302</xdr:colOff>
+      <xdr:colOff>100508</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>67242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>745191</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>134473</xdr:rowOff>
     </xdr:to>
@@ -7568,14 +7599,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2355866" y="2540766"/>
-          <a:ext cx="1748114" cy="4577948"/>
+          <a:off x="2403491" y="2504347"/>
+          <a:ext cx="1748114" cy="4650786"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
             <a:gd name="adj1" fmla="val -13077"/>
-            <a:gd name="adj2" fmla="val 37573"/>
-            <a:gd name="adj3" fmla="val 113077"/>
+            <a:gd name="adj2" fmla="val 42888"/>
+            <a:gd name="adj3" fmla="val 156667"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7681,14 +7712,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>201704</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>145675</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>627529</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134473</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7697,7 +7728,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="414616" y="3697940"/>
+          <a:off x="414616" y="4112562"/>
           <a:ext cx="1064560" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
@@ -7753,58 +7784,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89303</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33622</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="カギ線コネクタ 27"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="2"/>
-          <a:endCxn id="14" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="784239" y="5109713"/>
-          <a:ext cx="313767" cy="345"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7932,13 +7911,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>380657</xdr:colOff>
+      <xdr:colOff>145331</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>134476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>745191</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
@@ -7952,8 +7931,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4367324" y="4361721"/>
-          <a:ext cx="1154200" cy="1148946"/>
+          <a:off x="4291683" y="4202036"/>
+          <a:ext cx="1154200" cy="1468316"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7983,131 +7962,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>773205</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="62" name="グループ化 61"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="257735" y="4381501"/>
-          <a:ext cx="1367117" cy="571501"/>
-          <a:chOff x="336178" y="3787589"/>
-          <a:chExt cx="1367117" cy="571501"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="ひし形 62"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="336178" y="3787589"/>
-            <a:ext cx="1367117" cy="571501"/>
-          </a:xfrm>
-          <a:prstGeom prst="diamond">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="テキスト ボックス 63"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="398523" y="3888442"/>
-            <a:ext cx="1229363" cy="392415"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>妥当性の判断</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>89646</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -8116,8 +7970,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97495</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8130,7 +7984,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="941293" y="3473819"/>
-          <a:ext cx="5603" cy="265583"/>
+          <a:ext cx="5603" cy="680205"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8270,68 +8124,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="直線矢印コネクタ 94"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="2"/>
-          <a:endCxn id="63" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="941294" y="4112557"/>
-          <a:ext cx="5602" cy="268944"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>279460</xdr:colOff>
+      <xdr:colOff>44134</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>638736</xdr:colOff>
+      <xdr:colOff>414616</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>162484</xdr:rowOff>
     </xdr:to>
@@ -8345,8 +8145,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5053166" y="5726206"/>
-          <a:ext cx="359276" cy="5602"/>
+          <a:off x="4817840" y="5726206"/>
+          <a:ext cx="370482" cy="5602"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8356,6 +8156,60 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
           <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100508</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33622</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="946896" y="4527179"/>
+          <a:ext cx="5259" cy="739590"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
@@ -8660,8 +8514,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8841936" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="9648266" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -8966,13 +8820,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>156885</xdr:colOff>
+      <xdr:colOff>268945</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>738904</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66552</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
@@ -8983,7 +8837,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3361767" y="2823883"/>
+          <a:off x="3473827" y="2823883"/>
           <a:ext cx="1366431" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -9049,8 +8903,8 @@
       <xdr:rowOff>112062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>582709</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>22414</xdr:rowOff>
     </xdr:to>
@@ -9062,7 +8916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3507443" y="1983444"/>
-          <a:ext cx="1064560" cy="414617"/>
+          <a:ext cx="1311086" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -9122,13 +8976,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>324975</xdr:colOff>
+      <xdr:colOff>347387</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>560298</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
@@ -9139,8 +8993,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3529857" y="4179795"/>
-          <a:ext cx="1019735" cy="515470"/>
+          <a:off x="3552269" y="4179795"/>
+          <a:ext cx="1221437" cy="515470"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -9297,7 +9151,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>324975</xdr:colOff>
+      <xdr:colOff>347387</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
@@ -9312,11 +9166,11 @@
       <xdr:spPr>
         <a:xfrm rot="10800000">
           <a:off x="493061" y="1764926"/>
-          <a:ext cx="3036796" cy="2672604"/>
+          <a:ext cx="3059208" cy="2672604"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 107528"/>
+            <a:gd name="adj1" fmla="val 106374"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9897,13 +9751,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>50429</xdr:colOff>
+      <xdr:colOff>167749</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>22414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>55689</xdr:colOff>
+      <xdr:colOff>173692</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
@@ -9916,9 +9770,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4039723" y="2398061"/>
-          <a:ext cx="5260" cy="425822"/>
+        <a:xfrm flipH="1">
+          <a:off x="4157043" y="2398061"/>
+          <a:ext cx="5943" cy="425822"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9951,13 +9805,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>50431</xdr:colOff>
+      <xdr:colOff>167749</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>55689</xdr:colOff>
+      <xdr:colOff>173694</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>6724</xdr:rowOff>
     </xdr:to>
@@ -9970,9 +9824,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4039725" y="3260911"/>
-          <a:ext cx="5258" cy="970431"/>
+        <a:xfrm>
+          <a:off x="4157043" y="3260911"/>
+          <a:ext cx="5945" cy="970431"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10004,8 +9858,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>738904</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66552</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
@@ -10025,8 +9879,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4728198" y="3036795"/>
-          <a:ext cx="516156" cy="5602"/>
+          <a:off x="4840258" y="3036795"/>
+          <a:ext cx="404096" cy="5602"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10528,7 +10382,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -10546,10 +10400,10 @@
       <c r="O1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="67">
+      <c r="P1" s="88">
         <v>42188</v>
       </c>
-      <c r="Q1" s="68"/>
+      <c r="Q1" s="89"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="39"/>
@@ -10566,11 +10420,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="39"/>
@@ -10615,17 +10469,17 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -10636,15 +10490,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10655,15 +10509,15 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10711,19 +10565,19 @@
       <c r="A10" s="39"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="40"/>
@@ -10732,17 +10586,17 @@
       <c r="A11" s="39"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="40"/>
@@ -10751,17 +10605,17 @@
       <c r="A12" s="39"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="40"/>
@@ -10771,17 +10625,17 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -10792,15 +10646,15 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -10811,15 +10665,15 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -10830,15 +10684,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -10849,15 +10703,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -10888,15 +10742,15 @@
       <c r="C19" s="15"/>
       <c r="D19" s="2"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
       <c r="M19" s="36"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10909,13 +10763,13 @@
       <c r="C20" s="15"/>
       <c r="D20" s="2"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
       <c r="M20" s="36"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10928,13 +10782,13 @@
       <c r="C21" s="15"/>
       <c r="D21" s="2"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
       <c r="M21" s="36"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10947,13 +10801,13 @@
       <c r="C22" s="15"/>
       <c r="D22" s="2"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
       <c r="M22" s="36"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10966,13 +10820,13 @@
       <c r="C23" s="15"/>
       <c r="D23" s="2"/>
       <c r="E23" s="36"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
       <c r="M23" s="36"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10985,13 +10839,13 @@
       <c r="C24" s="15"/>
       <c r="D24" s="2"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
       <c r="M24" s="36"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -11004,13 +10858,13 @@
       <c r="C25" s="15"/>
       <c r="D25" s="2"/>
       <c r="E25" s="36"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
       <c r="M25" s="36"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -11064,16 +10918,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="107"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="99"/>
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -11085,20 +10939,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="112" t="s">
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="113"/>
-      <c r="M29" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="N29" s="66"/>
-      <c r="O29" s="103" t="s">
+      <c r="L29" s="75"/>
+      <c r="M29" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" s="76"/>
+      <c r="O29" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="P29" s="104"/>
+      <c r="P29" s="87"/>
       <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -11110,14 +10964,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="79"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="69"/>
       <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -11129,14 +10983,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="81"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="71"/>
       <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -11148,14 +11002,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="81"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="71"/>
       <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11167,14 +11021,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="81"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="71"/>
       <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11186,14 +11040,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="81"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="71"/>
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11205,14 +11059,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="83"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="73"/>
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11236,6 +11090,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F19:L25"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="E5:M7"/>
+    <mergeCell ref="D10:N12"/>
+    <mergeCell ref="E13:M17"/>
     <mergeCell ref="I30:J35"/>
     <mergeCell ref="O30:P35"/>
     <mergeCell ref="K29:L29"/>
@@ -11244,13 +11105,6 @@
     <mergeCell ref="M30:N35"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="E5:M7"/>
-    <mergeCell ref="D10:N12"/>
-    <mergeCell ref="E13:M17"/>
-    <mergeCell ref="F19:L25"/>
-    <mergeCell ref="K28:P28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11269,7 +11123,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11284,25 +11138,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
       <c r="G1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="110"/>
       <c r="L1" s="53" t="s">
         <v>2</v>
       </c>
@@ -11382,58 +11236,841 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
       <c r="L6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
+      <c r="M6" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
       <c r="H7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
       <c r="L7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
+      <c r="M7" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="18">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12040,7 +12677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -12048,7 +12685,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12063,32 +12700,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="64" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -12161,62 +12798,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="30" t="s">
+      <c r="I6" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="30" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="30" t="s">
+      <c r="I7" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12801,796 +13434,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="18">
-        <v>42188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13610,7 +13464,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13625,25 +13479,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="110"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -13723,62 +13577,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
+      <c r="I6" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
       <c r="L6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
+      <c r="M6" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
       <c r="H7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
+      <c r="I7" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
       <c r="L7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
+      <c r="M7" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -14363,17 +14217,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14393,7 +14247,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14408,25 +14262,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
       <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="110"/>
       <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
@@ -14528,10 +14382,10 @@
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
@@ -14553,10 +14407,10 @@
       <c r="D8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="111"/>
       <c r="G8" s="29" t="s">
         <v>19</v>
       </c>
@@ -14566,11 +14420,11 @@
       <c r="I8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="2"/>
@@ -14584,22 +14438,22 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="96"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
+        <v>42</v>
+      </c>
+      <c r="J9" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="2"/>
@@ -14613,20 +14467,20 @@
         <f t="shared" ref="D10:D14" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="96"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
+      <c r="J10" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2"/>
@@ -14640,20 +14494,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="96"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
+        <v>41</v>
+      </c>
+      <c r="J11" s="105"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="107"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="2"/>
@@ -14667,18 +14521,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="96"/>
+      <c r="E12" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="113"/>
       <c r="G12" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="2"/>
@@ -14692,18 +14546,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="96"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="2"/>
@@ -14717,18 +14571,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="96"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="2"/>
@@ -14749,10 +14603,10 @@
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
@@ -14795,19 +14649,19 @@
         <v>1</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="59"/>
       <c r="G18" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J18" s="65"/>
       <c r="K18" s="56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L18" s="57"/>
       <c r="P18" s="8"/>
@@ -14820,17 +14674,17 @@
         <v>2</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="55"/>
       <c r="K19" s="56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L19" s="57"/>
       <c r="P19" s="8"/>
@@ -14845,10 +14699,10 @@
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="8"/>
     </row>
@@ -14891,15 +14745,15 @@
       </c>
       <c r="F23" s="59"/>
       <c r="G23" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" s="55"/>
       <c r="K23" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L23" s="57"/>
       <c r="P23" s="8"/>
@@ -14916,7 +14770,7 @@
       </c>
       <c r="F24" s="59"/>
       <c r="G24" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
@@ -14937,7 +14791,7 @@
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
@@ -14953,12 +14807,12 @@
       <c r="D26" s="28">
         <v>4</v>
       </c>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="96"/>
+      <c r="F26" s="113"/>
       <c r="G26" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
@@ -14974,20 +14828,20 @@
       <c r="D27" s="28">
         <v>5</v>
       </c>
-      <c r="E27" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="96"/>
+      <c r="E27" s="112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="113"/>
       <c r="G27" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J27" s="55"/>
       <c r="K27" s="56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L27" s="57"/>
       <c r="M27" s="2"/>
@@ -15081,11 +14935,10 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
@@ -15096,10 +14949,11 @@
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
+++ b/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -224,10 +224,6 @@
     <rPh sb="0" eb="1">
       <t>ガタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Null</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1195,7 +1191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,9 +1286,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,6 +1453,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,18 +1487,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10381,32 +10374,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="88">
+      <c r="A1" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="91">
         <v>42188</v>
       </c>
-      <c r="Q1" s="89"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="2"/>
@@ -10420,14 +10413,14 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="2"/>
@@ -10441,12 +10434,12 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="49"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="2"/>
@@ -10460,71 +10453,71 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
+      <c r="E5" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="40"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="40"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="40"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="2"/>
@@ -10540,10 +10533,10 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="40"/>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="2"/>
@@ -10559,166 +10552,166 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="40"/>
+      <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
+      <c r="D10" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="40"/>
+      <c r="Q10" s="39"/>
     </row>
     <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="40"/>
+      <c r="Q11" s="39"/>
     </row>
     <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="40"/>
+      <c r="Q12" s="39"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
+      <c r="E13" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="40"/>
+      <c r="Q13" s="39"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="40"/>
+      <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="40"/>
+      <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="40"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="40"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="2"/>
@@ -10734,183 +10727,183 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="40"/>
+      <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="36"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="40"/>
+      <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="40"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="36"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="40"/>
+      <c r="Q21" s="39"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="36"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="40"/>
+      <c r="Q22" s="39"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="36"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="40"/>
+      <c r="Q23" s="39"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="36"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="35"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="40"/>
+      <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="36"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="35"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="40"/>
+      <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="36"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="35"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="40"/>
+      <c r="Q26" s="39"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="36"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="35"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="40"/>
+      <c r="Q27" s="39"/>
     </row>
     <row r="28" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="2"/>
@@ -10918,20 +10911,20 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="40"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="39"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="2"/>
@@ -10939,24 +10932,24 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" s="75"/>
-      <c r="M29" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="N29" s="76"/>
-      <c r="O29" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="40"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="74"/>
+      <c r="M29" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="75"/>
+      <c r="O29" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="2"/>
@@ -10964,18 +10957,18 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="40"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="2"/>
@@ -10983,18 +10976,18 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="40"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="2"/>
@@ -11002,18 +10995,18 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="40"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="39"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="39"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="2"/>
@@ -11021,18 +11014,18 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="40"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="39"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="39"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="2"/>
@@ -11040,18 +11033,18 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="40"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="39"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="2"/>
@@ -11059,34 +11052,34 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="40"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="39"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="44"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -11138,36 +11131,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="53" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="53" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -11236,58 +11229,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="54" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="54" t="s">
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
+      <c r="M6" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="54" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="54" t="s">
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
+      <c r="M7" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -11486,7 +11479,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11722,7 +11715,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="34" t="s">
+      <c r="P31" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11901,7 +11894,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -11917,25 +11910,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="110"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
@@ -11946,7 +11939,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -12015,62 +12008,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
+      <c r="I6" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
       <c r="L6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
+      <c r="M6" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
+      <c r="I7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
       <c r="L7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
+      <c r="M7" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12269,7 +12262,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -12505,7 +12498,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="34" t="s">
+      <c r="P31" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -12700,36 +12693,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="64" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="64" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="63" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -12798,58 +12791,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="82" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="63" t="s">
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="82" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="63" t="s">
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -13048,7 +13041,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -13284,7 +13277,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="34" t="s">
+      <c r="P31" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13479,36 +13472,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="64" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="64" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="63" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -13577,62 +13570,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="63" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="63" t="s">
+      <c r="I6" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
+      <c r="M6" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="63" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="63" t="s">
+      <c r="I7" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
+      <c r="M7" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -13831,7 +13824,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -14067,7 +14060,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="34" t="s">
+      <c r="P31" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14246,8 +14239,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14262,25 +14255,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
       <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="110"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
@@ -14291,7 +14284,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -14382,13 +14375,13 @@
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+        <v>57</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
@@ -14407,28 +14400,26 @@
       <c r="D8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="E8" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="111"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="111" t="s">
+      <c r="I8" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="8"/>
+      <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -14438,26 +14429,26 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="113"/>
+      <c r="E9" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="112"/>
       <c r="G9" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>81</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="105"/>
       <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="8"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
@@ -14467,24 +14458,24 @@
         <f t="shared" ref="D10:D14" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="113"/>
+      <c r="E10" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="112"/>
       <c r="G10" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="105" t="s">
-        <v>82</v>
-      </c>
+      <c r="I10" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="105"/>
       <c r="K10" s="106"/>
-      <c r="L10" s="107"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="8"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
@@ -14494,24 +14485,24 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="113"/>
+      <c r="E11" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="112"/>
       <c r="G11" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25" t="s">
-        <v>41</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="104"/>
       <c r="J11" s="105"/>
       <c r="K11" s="106"/>
-      <c r="L11" s="107"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="8"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
@@ -14521,22 +14512,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="113"/>
+      <c r="E12" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="112"/>
       <c r="G12" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="105"/>
       <c r="K12" s="106"/>
-      <c r="L12" s="107"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="8"/>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
@@ -14546,22 +14537,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="113"/>
+      <c r="E13" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="112"/>
       <c r="G13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="104"/>
       <c r="J13" s="105"/>
       <c r="K13" s="106"/>
-      <c r="L13" s="107"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="8"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
@@ -14571,22 +14562,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="113"/>
+      <c r="E14" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="112"/>
       <c r="G14" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="104"/>
       <c r="J14" s="105"/>
       <c r="K14" s="106"/>
-      <c r="L14" s="107"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="8"/>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
@@ -14596,23 +14587,23 @@
       <c r="E15" s="20"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="P15" s="8"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="P16" s="8"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
@@ -14621,25 +14612,23 @@
       <c r="D17" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60" t="s">
+      <c r="F17" s="59"/>
+      <c r="G17" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="59" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="P17" s="8"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
@@ -14648,23 +14637,23 @@
       <c r="D18" s="28">
         <v>1</v>
       </c>
-      <c r="E18" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="59"/>
+      <c r="E18" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="58"/>
       <c r="G18" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="57"/>
-      <c r="P18" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="64"/>
+      <c r="J18" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="56"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
@@ -14673,38 +14662,40 @@
       <c r="D19" s="28">
         <v>2</v>
       </c>
-      <c r="E19" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="59"/>
+      <c r="E19" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="58"/>
       <c r="G19" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="57"/>
-      <c r="P19" s="8"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="56"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="P20" s="8"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
@@ -14713,25 +14704,23 @@
       <c r="D22" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60" t="s">
+      <c r="F22" s="59"/>
+      <c r="G22" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="60" t="s">
+      <c r="H22" s="59" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="P22" s="8"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
@@ -14740,23 +14729,23 @@
       <c r="D23" s="28">
         <v>1</v>
       </c>
-      <c r="E23" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="59"/>
+      <c r="E23" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="58"/>
       <c r="G23" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="L23" s="57"/>
-      <c r="P23" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="56"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
@@ -14765,19 +14754,19 @@
       <c r="D24" s="28">
         <v>2</v>
       </c>
-      <c r="E24" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="59"/>
+      <c r="E24" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="58"/>
       <c r="G24" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="55"/>
       <c r="K24" s="56"/>
-      <c r="L24" s="57"/>
-      <c r="P24" s="8"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
@@ -14786,19 +14775,19 @@
       <c r="D25" s="28">
         <v>3</v>
       </c>
-      <c r="E25" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="59"/>
+      <c r="E25" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="58"/>
       <c r="G25" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="55"/>
       <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
-      <c r="P25" s="8"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
@@ -14807,19 +14796,19 @@
       <c r="D26" s="28">
         <v>4</v>
       </c>
-      <c r="E26" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="113"/>
+      <c r="E26" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="112"/>
       <c r="G26" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="55"/>
       <c r="K26" s="56"/>
-      <c r="L26" s="57"/>
-      <c r="P26" s="8"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
@@ -14828,31 +14817,32 @@
       <c r="D27" s="28">
         <v>5</v>
       </c>
-      <c r="E27" s="112" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="113"/>
+      <c r="E27" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="112"/>
       <c r="G27" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="2"/>
-      <c r="P27" s="8"/>
+      <c r="H27" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="56"/>
+      <c r="L27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="M28" s="2"/>
-      <c r="P28" s="8"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
@@ -14937,22 +14927,22 @@
   <mergeCells count="19">
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>

--- a/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
+++ b/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.0.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -667,6 +663,14 @@
   </si>
   <si>
     <t>ログイン失敗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.7.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.7.1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1390,6 +1394,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1453,48 +1493,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1522,7 +1520,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1530,6 +1531,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1876,8 +1880,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="952501" y="4112558"/>
-          <a:ext cx="1367117" cy="571501"/>
+          <a:off x="866283" y="3796687"/>
+          <a:ext cx="1255932" cy="527865"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -2138,8 +2142,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="952503" y="3238500"/>
-          <a:ext cx="1367117" cy="571501"/>
+          <a:off x="866285" y="2988878"/>
+          <a:ext cx="1255932" cy="527865"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -2988,8 +2992,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9648266" y="3955677"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="8841936" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3233,8 +3237,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7384681" y="5188321"/>
-          <a:ext cx="1432281" cy="896353"/>
+          <a:off x="6765601" y="4790893"/>
+          <a:ext cx="1313543" cy="831180"/>
           <a:chOff x="6239246" y="4367367"/>
           <a:chExt cx="1432281" cy="896353"/>
         </a:xfrm>
@@ -3847,8 +3851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2465301" y="2431677"/>
-          <a:ext cx="1848964" cy="705970"/>
+          <a:off x="2254249" y="2242208"/>
+          <a:ext cx="1697080" cy="652742"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -5055,15 +5059,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>347384</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>168086</xdr:rowOff>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>750796</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>78438</xdr:rowOff>
+      <xdr:rowOff>112056</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5072,7 +5076,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5121090" y="4728880"/>
+          <a:off x="5087472" y="4762498"/>
           <a:ext cx="1221442" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
@@ -5133,15 +5137,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>425825</xdr:colOff>
+      <xdr:colOff>526679</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
+      <xdr:rowOff>44825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>112060</xdr:colOff>
+      <xdr:colOff>212914</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5150,7 +5154,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3630707" y="4740089"/>
+          <a:off x="3731561" y="4773707"/>
           <a:ext cx="1255059" cy="369794"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
@@ -5315,7 +5319,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>268944</xdr:colOff>
+      <xdr:colOff>369798</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>112057</xdr:rowOff>
     </xdr:from>
@@ -5323,7 +5327,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>224119</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>48186</xdr:rowOff>
+      <xdr:rowOff>81804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5335,8 +5339,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4407835" y="4187078"/>
-          <a:ext cx="440393" cy="739587"/>
+          <a:off x="4441453" y="4254314"/>
+          <a:ext cx="474011" cy="638733"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5373,9 +5377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>173693</xdr:colOff>
+      <xdr:colOff>140075</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>41459</xdr:rowOff>
+      <xdr:rowOff>75077</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5387,8 +5391,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5147984" y="4186514"/>
-          <a:ext cx="433667" cy="733987"/>
+          <a:off x="5114366" y="4220132"/>
+          <a:ext cx="467285" cy="700369"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5419,15 +5423,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>268943</xdr:colOff>
+      <xdr:colOff>369797</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>156885</xdr:rowOff>
+      <xdr:colOff>168090</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22415</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5438,7 +5442,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5418044" y="3950076"/>
+          <a:off x="5518898" y="3983694"/>
           <a:ext cx="616326" cy="2935940"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -5475,10 +5479,10 @@
       <xdr:rowOff>5594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>750796</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>39218</xdr:rowOff>
+      <xdr:rowOff>72836</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5491,11 +5495,11 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1814659" y="3221682"/>
-          <a:ext cx="4527873" cy="1714507"/>
+          <a:ext cx="4494255" cy="1748125"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -5049"/>
+            <a:gd name="adj1" fmla="val -5086"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7168,15 +7172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
+      <xdr:colOff>448235</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>22419</xdr:rowOff>
+      <xdr:rowOff>78449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>100859</xdr:rowOff>
+      <xdr:rowOff>156889</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7185,8 +7189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3675529" y="3910860"/>
-          <a:ext cx="1075765" cy="414617"/>
+          <a:off x="3653117" y="3966890"/>
+          <a:ext cx="1221442" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -7401,9 +7405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
+      <xdr:colOff>274544</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>100860</xdr:rowOff>
+      <xdr:rowOff>156890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7415,13 +7419,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="1711353" y="1823418"/>
-          <a:ext cx="2414874" cy="2589245"/>
+          <a:off x="1708551" y="1826220"/>
+          <a:ext cx="2470904" cy="2639671"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -9466"/>
-            <a:gd name="adj2" fmla="val 60387"/>
+            <a:gd name="adj1" fmla="val -9252"/>
+            <a:gd name="adj2" fmla="val 61568"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7788,7 +7792,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>649941</xdr:colOff>
+      <xdr:colOff>739588</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:to>
@@ -7800,7 +7804,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1893795" y="1299881"/>
-          <a:ext cx="1176617" cy="392206"/>
+          <a:ext cx="1266264" cy="392206"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -10375,7 +10379,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -10391,12 +10395,12 @@
       <c r="M1" s="37"/>
       <c r="N1" s="37"/>
       <c r="O1" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="91">
+        <v>22</v>
+      </c>
+      <c r="P1" s="70">
         <v>42188</v>
       </c>
-      <c r="Q1" s="92"/>
+      <c r="Q1" s="71"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -10413,11 +10417,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
+      <c r="O2" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
@@ -10462,17 +10466,17 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="95" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
+      <c r="E5" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -10483,15 +10487,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10502,15 +10506,15 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10558,19 +10562,19 @@
       <c r="A10" s="38"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
+      <c r="D10" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="39"/>
@@ -10579,17 +10583,17 @@
       <c r="A11" s="38"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="39"/>
@@ -10598,17 +10602,17 @@
       <c r="A12" s="38"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="39"/>
@@ -10618,17 +10622,17 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
+      <c r="E13" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -10639,15 +10643,15 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -10658,15 +10662,15 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -10677,15 +10681,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -10696,15 +10700,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -10735,15 +10739,15 @@
       <c r="C19" s="15"/>
       <c r="D19" s="2"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
+      <c r="F19" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="35"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10756,13 +10760,13 @@
       <c r="C20" s="15"/>
       <c r="D20" s="2"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="35"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10775,13 +10779,13 @@
       <c r="C21" s="15"/>
       <c r="D21" s="2"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
       <c r="M21" s="35"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10794,13 +10798,13 @@
       <c r="C22" s="15"/>
       <c r="D22" s="2"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="35"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10813,13 +10817,13 @@
       <c r="C23" s="15"/>
       <c r="D23" s="2"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
       <c r="M23" s="35"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10832,13 +10836,13 @@
       <c r="C24" s="15"/>
       <c r="D24" s="2"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
       <c r="M24" s="35"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10851,13 +10855,13 @@
       <c r="C25" s="15"/>
       <c r="D25" s="2"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="35"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -10913,14 +10917,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="65"/>
       <c r="J28" s="65"/>
-      <c r="K28" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="90"/>
+      <c r="K28" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="69"/>
       <c r="Q28" s="39"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -10932,20 +10936,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="74"/>
-      <c r="M29" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="N29" s="75"/>
-      <c r="O29" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="86"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="86"/>
+      <c r="M29" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="N29" s="87"/>
+      <c r="O29" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="98"/>
       <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -10957,14 +10961,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="68"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="80"/>
       <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -10976,14 +10980,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="70"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="82"/>
       <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -10995,14 +10999,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="70"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="82"/>
       <c r="Q32" s="39"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11014,14 +11018,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="70"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="82"/>
       <c r="Q33" s="39"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11033,14 +11037,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="70"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="82"/>
       <c r="Q34" s="39"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11052,14 +11056,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="72"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="84"/>
       <c r="Q35" s="39"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11083,13 +11087,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F19:L25"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="E5:M7"/>
-    <mergeCell ref="D10:N12"/>
-    <mergeCell ref="E13:M17"/>
     <mergeCell ref="I30:J35"/>
     <mergeCell ref="O30:P35"/>
     <mergeCell ref="K29:L29"/>
@@ -11098,6 +11095,13 @@
     <mergeCell ref="M30:N35"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
+    <mergeCell ref="F19:L25"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="E5:M7"/>
+    <mergeCell ref="D10:N12"/>
+    <mergeCell ref="E13:M17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11116,7 +11120,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11131,36 +11135,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
+      <c r="H1" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
       <c r="L1" s="52" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="N1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -11191,7 +11195,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -11211,7 +11215,7 @@
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11229,58 +11233,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
+      <c r="B6" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
+        <v>8</v>
+      </c>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
+        <v>8</v>
+      </c>
+      <c r="M6" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="B7" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
       <c r="H7" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
+        <v>7</v>
+      </c>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="99" t="s">
-        <v>90</v>
-      </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
+        <v>7</v>
+      </c>
+      <c r="M7" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -11480,7 +11484,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="8"/>
       <c r="P18" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -11716,7 +11720,791 @@
       <c r="N31" s="2"/>
       <c r="O31" s="8"/>
       <c r="P31" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="str">
+        <f>処理1!M1</f>
+        <v>6.7.1</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="18">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="33" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -11887,7 +12675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -11895,7 +12683,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11910,36 +12698,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="3" t="s">
+      <c r="H1" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="61" t="str">
+        <f>処理1!M1</f>
+        <v>6.7.1</v>
+      </c>
+      <c r="N1" s="63" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -11970,7 +12759,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -11990,7 +12779,7 @@
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -12008,62 +12797,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
+      <c r="B6" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
+      <c r="B7" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12263,7 +13048,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="8"/>
       <c r="P18" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -12499,7 +13284,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="8"/>
       <c r="P31" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -12648,796 +13433,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="18">
-        <v>42188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="99" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13457,7 +13463,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13472,36 +13478,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
+      <c r="H1" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
       <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="61" t="s">
-        <v>5</v>
+      <c r="M1" s="61" t="str">
+        <f>処理1!M1</f>
+        <v>6.7.1</v>
       </c>
       <c r="N1" s="63" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -13532,7 +13539,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -13552,7 +13559,7 @@
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -13570,62 +13577,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
+      <c r="B6" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
+        <v>8</v>
+      </c>
+      <c r="I6" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
+        <v>8</v>
+      </c>
+      <c r="M6" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="B7" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
       <c r="H7" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
+        <v>7</v>
+      </c>
+      <c r="I7" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
+        <v>7</v>
+      </c>
+      <c r="M7" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -13825,7 +13832,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="8"/>
       <c r="P18" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -14061,7 +14068,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="8"/>
       <c r="P31" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -14210,17 +14217,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14239,8 +14246,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14255,36 +14262,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
+      <c r="H1" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
       <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P1" s="18">
         <v>42188</v>
@@ -14317,7 +14324,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -14337,7 +14344,7 @@
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -14375,10 +14382,10 @@
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
@@ -14398,28 +14405,28 @@
       <c r="B8" s="15"/>
       <c r="C8" s="21"/>
       <c r="D8" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="112"/>
+      <c r="G8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="29" t="s">
+      <c r="H8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="I8" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
@@ -14429,26 +14436,26 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="112"/>
+      <c r="E9" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="111"/>
       <c r="G9" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="105"/>
-      <c r="K9" s="106"/>
+        <v>40</v>
+      </c>
+      <c r="I9" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
@@ -14458,24 +14465,24 @@
         <f t="shared" ref="D10:D14" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="112"/>
+      <c r="E10" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="111"/>
       <c r="G10" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="25"/>
-      <c r="I10" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="106"/>
+      <c r="I10" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="103"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
@@ -14485,24 +14492,24 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="112"/>
+      <c r="E11" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="111"/>
       <c r="G11" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="106"/>
+        <v>39</v>
+      </c>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
@@ -14512,22 +14519,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="112"/>
+      <c r="E12" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="111"/>
       <c r="G12" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="25"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="106"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="104"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
@@ -14537,22 +14544,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="112"/>
+      <c r="E13" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="111"/>
       <c r="G13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="106"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="104"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
@@ -14562,22 +14569,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="112"/>
+      <c r="E14" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="111"/>
       <c r="G14" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="25"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="106"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="104"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
@@ -14588,47 +14595,47 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="59" t="s">
-        <v>20</v>
-      </c>
       <c r="I17" s="60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
@@ -14638,22 +14645,22 @@
         <v>1</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="58"/>
       <c r="G18" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" s="64"/>
       <c r="J18" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" s="56"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
@@ -14663,64 +14670,64 @@
         <v>2</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="58"/>
       <c r="G19" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="54"/>
       <c r="J19" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19" s="56"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="P21" s="8"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="59"/>
       <c r="G22" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="59" t="s">
-        <v>20</v>
-      </c>
       <c r="I22" s="60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
@@ -14730,22 +14737,22 @@
         <v>1</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K23" s="56"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="8"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
@@ -14755,18 +14762,18 @@
         <v>2</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="58"/>
       <c r="G24" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="54"/>
       <c r="J24" s="55"/>
       <c r="K24" s="56"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
@@ -14776,18 +14783,18 @@
         <v>3</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="54"/>
       <c r="J25" s="55"/>
       <c r="K25" s="56"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
@@ -14796,19 +14803,19 @@
       <c r="D26" s="28">
         <v>4</v>
       </c>
-      <c r="E26" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="112"/>
+      <c r="E26" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="111"/>
       <c r="G26" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="54"/>
       <c r="J26" s="55"/>
       <c r="K26" s="56"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
@@ -14817,24 +14824,24 @@
       <c r="D27" s="28">
         <v>5</v>
       </c>
-      <c r="E27" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="112"/>
+      <c r="E27" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="111"/>
       <c r="G27" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K27" s="56"/>
       <c r="L27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
@@ -14842,7 +14849,7 @@
       <c r="C28" s="15"/>
       <c r="M28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="P28" s="8"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
@@ -14925,12 +14932,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E8:F8"/>
@@ -14939,11 +14945,12 @@
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
+++ b/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -1394,42 +1394,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,6 +1457,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1520,10 +1526,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1531,9 +1534,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1880,8 +1880,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="866283" y="3796687"/>
-          <a:ext cx="1255932" cy="527865"/>
+          <a:off x="952501" y="4112558"/>
+          <a:ext cx="1367117" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -2142,8 +2142,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="866285" y="2988878"/>
-          <a:ext cx="1255932" cy="527865"/>
+          <a:off x="952503" y="3238500"/>
+          <a:ext cx="1367117" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -2992,8 +2992,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8841936" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="9648266" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3237,8 +3237,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6765601" y="4790893"/>
-          <a:ext cx="1313543" cy="831180"/>
+          <a:off x="7384681" y="5188321"/>
+          <a:ext cx="1432281" cy="896353"/>
           <a:chOff x="6239246" y="4367367"/>
           <a:chExt cx="1432281" cy="896353"/>
         </a:xfrm>
@@ -3851,8 +3851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2254249" y="2242208"/>
-          <a:ext cx="1697080" cy="652742"/>
+          <a:off x="2465301" y="2431677"/>
+          <a:ext cx="1848964" cy="705970"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -10365,7 +10365,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10397,10 +10397,10 @@
       <c r="O1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="70">
-        <v>42188</v>
-      </c>
-      <c r="Q1" s="71"/>
+      <c r="P1" s="91">
+        <v>42195</v>
+      </c>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -10417,11 +10417,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="73"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
@@ -10466,17 +10466,17 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -10487,15 +10487,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10506,15 +10506,15 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10562,19 +10562,19 @@
       <c r="A10" s="38"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="39"/>
@@ -10583,17 +10583,17 @@
       <c r="A11" s="38"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="39"/>
@@ -10602,17 +10602,17 @@
       <c r="A12" s="38"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="39"/>
@@ -10622,17 +10622,17 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -10643,15 +10643,15 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -10662,15 +10662,15 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -10681,15 +10681,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -10700,15 +10700,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -10739,15 +10739,15 @@
       <c r="C19" s="15"/>
       <c r="D19" s="2"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
       <c r="M19" s="35"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10760,13 +10760,13 @@
       <c r="C20" s="15"/>
       <c r="D20" s="2"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="35"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10779,13 +10779,13 @@
       <c r="C21" s="15"/>
       <c r="D21" s="2"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
       <c r="M21" s="35"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10798,13 +10798,13 @@
       <c r="C22" s="15"/>
       <c r="D22" s="2"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
       <c r="M22" s="35"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10817,13 +10817,13 @@
       <c r="C23" s="15"/>
       <c r="D23" s="2"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
       <c r="M23" s="35"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10836,13 +10836,13 @@
       <c r="C24" s="15"/>
       <c r="D24" s="2"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
       <c r="M24" s="35"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10855,13 +10855,13 @@
       <c r="C25" s="15"/>
       <c r="D25" s="2"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
       <c r="M25" s="35"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -10917,14 +10917,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="65"/>
       <c r="J28" s="65"/>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="69"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="90"/>
       <c r="Q28" s="39"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -10936,20 +10936,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="85" t="s">
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="86"/>
-      <c r="M29" s="87" t="s">
+      <c r="L29" s="74"/>
+      <c r="M29" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="N29" s="87"/>
-      <c r="O29" s="97" t="s">
+      <c r="N29" s="75"/>
+      <c r="O29" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="98"/>
+      <c r="P29" s="86"/>
       <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -10961,14 +10961,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="68"/>
       <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -10980,14 +10980,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="82"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="70"/>
       <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -10999,14 +10999,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="82"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="70"/>
       <c r="Q32" s="39"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11018,14 +11018,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="82"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="70"/>
       <c r="Q33" s="39"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11037,14 +11037,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="82"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="70"/>
       <c r="Q34" s="39"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11056,14 +11056,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="84"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="72"/>
       <c r="Q35" s="39"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11087,6 +11087,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F19:L25"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="E5:M7"/>
+    <mergeCell ref="D10:N12"/>
+    <mergeCell ref="E13:M17"/>
     <mergeCell ref="I30:J35"/>
     <mergeCell ref="O30:P35"/>
     <mergeCell ref="K29:L29"/>
@@ -11095,13 +11102,6 @@
     <mergeCell ref="M30:N35"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
-    <mergeCell ref="F19:L25"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="E5:M7"/>
-    <mergeCell ref="D10:N12"/>
-    <mergeCell ref="E13:M17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11120,7 +11120,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11135,25 +11135,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
       <c r="G1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="52" t="s">
         <v>2</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>37</v>
       </c>
       <c r="P1" s="18">
-        <v>42188</v>
+        <v>42195</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11233,58 +11233,842 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="93" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
       <c r="L6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="93" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
       <c r="L7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="109" t="s">
+      <c r="M7" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="str">
+        <f>処理1!M1</f>
+        <v>6.7.1</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="18">
+        <v>42195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -11891,15 +12675,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11914,40 +12698,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="str">
+      <c r="M1" s="61" t="str">
         <f>処理1!M1</f>
         <v>6.7.1</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="63" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="P1" s="18">
-        <v>42188</v>
+        <v>42195</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12013,62 +12797,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="109" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="30" t="s">
+      <c r="I6" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="30" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="30" t="s">
+      <c r="I7" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12653,797 +13433,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="61" t="str">
-        <f>処理1!M1</f>
-        <v>6.7.1</v>
-      </c>
-      <c r="N1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="18">
-        <v>42188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13463,7 +13463,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13478,25 +13478,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
       <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>37</v>
       </c>
       <c r="P1" s="18">
-        <v>42188</v>
+        <v>42195</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13577,62 +13577,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="93" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="109" t="s">
+      <c r="I6" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
       <c r="L6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="93" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="109" t="s">
+      <c r="I7" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
       <c r="L7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="109" t="s">
+      <c r="M7" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -14217,17 +14217,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14246,8 +14246,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14262,25 +14262,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
       <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>37</v>
       </c>
       <c r="P1" s="18">
-        <v>42188</v>
+        <v>42195</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15">
@@ -14407,21 +14407,21 @@
       <c r="D8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="112"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="112" t="s">
+      <c r="I8" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="2"/>
@@ -14436,21 +14436,21 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="111"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="25" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="102" t="s">
+      <c r="I9" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="106"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="2"/>
@@ -14465,19 +14465,19 @@
         <f t="shared" ref="D10:D14" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="111"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="25" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="25"/>
-      <c r="I10" s="102" t="s">
+      <c r="I10" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="106"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="2"/>
@@ -14492,19 +14492,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="111"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="25" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="106"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="2"/>
@@ -14519,17 +14519,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="111"/>
+      <c r="F12" s="112"/>
       <c r="G12" s="25" t="s">
         <v>48</v>
       </c>
       <c r="H12" s="25"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="2"/>
@@ -14544,17 +14544,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="111"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="25" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="106"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="2"/>
@@ -14569,17 +14569,17 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="111"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="25" t="s">
         <v>48</v>
       </c>
       <c r="H14" s="25"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="2"/>
@@ -14803,10 +14803,10 @@
       <c r="D26" s="28">
         <v>4</v>
       </c>
-      <c r="E26" s="110" t="s">
+      <c r="E26" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="111"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="25" t="s">
         <v>48</v>
       </c>
@@ -14824,10 +14824,10 @@
       <c r="D27" s="28">
         <v>5</v>
       </c>
-      <c r="E27" s="110" t="s">
+      <c r="E27" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="111"/>
+      <c r="F27" s="112"/>
       <c r="G27" s="25" t="s">
         <v>48</v>
       </c>
@@ -14932,11 +14932,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E8:F8"/>
@@ -14945,12 +14946,11 @@
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
+++ b/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -321,19 +321,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>介護製品用データベース開発</t>
-    <rPh sb="0" eb="2">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>セイヒンヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -671,6 +658,10 @@
   </si>
   <si>
     <t>6.7.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QRコードを使い，野菜の詳細情報を伝えるシステム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4304,8 +4295,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9648266" y="3955677"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="8841936" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -5953,8 +5944,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1714500" y="5558118"/>
-          <a:ext cx="1367117" cy="571501"/>
+          <a:off x="1565865" y="5132743"/>
+          <a:ext cx="1255932" cy="529322"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -6670,8 +6661,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9648266" y="3955677"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="8841936" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -9073,13 +9064,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9088,8 +9079,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2173941" y="1591236"/>
-          <a:ext cx="1098177" cy="358588"/>
+          <a:off x="2173941" y="1557617"/>
+          <a:ext cx="1098177" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -10026,7 +10017,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:rowOff>61632</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10039,7 +10030,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1859492" y="1764926"/>
-          <a:ext cx="314449" cy="5604"/>
+          <a:ext cx="314449" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10364,8 +10355,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10379,7 +10370,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -10418,7 +10409,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="93"/>
       <c r="Q2" s="94"/>
@@ -10563,7 +10554,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="97" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="E10" s="97"/>
       <c r="F10" s="97"/>
@@ -10918,7 +10909,7 @@
       <c r="I28" s="65"/>
       <c r="J28" s="65"/>
       <c r="K28" s="88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L28" s="89"/>
       <c r="M28" s="89"/>
@@ -10943,7 +10934,7 @@
       </c>
       <c r="L29" s="74"/>
       <c r="M29" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="85" t="s">
@@ -11141,7 +11132,7 @@
       <c r="B1" s="102"/>
       <c r="C1" s="103"/>
       <c r="D1" s="104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="105"/>
       <c r="F1" s="106"/>
@@ -11158,13 +11149,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="18">
         <v>42195</v>
@@ -11239,7 +11230,7 @@
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
       <c r="E6" s="81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -11253,7 +11244,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" s="99"/>
       <c r="O6" s="99"/>
@@ -11267,7 +11258,7 @@
       <c r="C7" s="100"/>
       <c r="D7" s="100"/>
       <c r="E7" s="81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="81"/>
       <c r="G7" s="81"/>
@@ -11281,7 +11272,7 @@
         <v>7</v>
       </c>
       <c r="M7" s="99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N7" s="99"/>
       <c r="O7" s="99"/>
@@ -11920,7 +11911,7 @@
       <c r="B1" s="102"/>
       <c r="C1" s="103"/>
       <c r="D1" s="104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="105"/>
       <c r="F1" s="106"/>
@@ -11944,7 +11935,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="18">
         <v>42195</v>
@@ -12019,7 +12010,7 @@
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
       <c r="E6" s="81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -12027,7 +12018,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="99"/>
       <c r="K6" s="99"/>
@@ -12035,7 +12026,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" s="99"/>
       <c r="O6" s="99"/>
@@ -12049,7 +12040,7 @@
       <c r="C7" s="100"/>
       <c r="D7" s="100"/>
       <c r="E7" s="81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="81"/>
       <c r="G7" s="81"/>
@@ -12057,7 +12048,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="99"/>
       <c r="K7" s="99"/>
@@ -12065,7 +12056,7 @@
         <v>7</v>
       </c>
       <c r="M7" s="99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N7" s="99"/>
       <c r="O7" s="99"/>
@@ -12704,7 +12695,7 @@
       <c r="B1" s="102"/>
       <c r="C1" s="103"/>
       <c r="D1" s="104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="105"/>
       <c r="F1" s="106"/>
@@ -12728,7 +12719,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="18">
         <v>42195</v>
@@ -12803,7 +12794,7 @@
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
       <c r="E6" s="81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -12811,7 +12802,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="99"/>
       <c r="K6" s="99"/>
@@ -12831,7 +12822,7 @@
       <c r="C7" s="100"/>
       <c r="D7" s="100"/>
       <c r="E7" s="81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="81"/>
       <c r="G7" s="81"/>
@@ -12839,7 +12830,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="99"/>
       <c r="K7" s="99"/>
@@ -13484,7 +13475,7 @@
       <c r="B1" s="102"/>
       <c r="C1" s="103"/>
       <c r="D1" s="104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="105"/>
       <c r="F1" s="106"/>
@@ -13508,7 +13499,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="18">
         <v>42195</v>
@@ -13583,7 +13574,7 @@
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
       <c r="E6" s="81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -13591,7 +13582,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="99"/>
       <c r="K6" s="99"/>
@@ -13599,7 +13590,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N6" s="99"/>
       <c r="O6" s="99"/>
@@ -13613,7 +13604,7 @@
       <c r="C7" s="100"/>
       <c r="D7" s="100"/>
       <c r="E7" s="81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="81"/>
       <c r="G7" s="81"/>
@@ -13621,7 +13612,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="99"/>
       <c r="K7" s="99"/>
@@ -13629,7 +13620,7 @@
         <v>7</v>
       </c>
       <c r="M7" s="99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" s="99"/>
       <c r="O7" s="99"/>
@@ -14246,7 +14237,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -14268,7 +14259,7 @@
       <c r="B1" s="102"/>
       <c r="C1" s="103"/>
       <c r="D1" s="104" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="105"/>
       <c r="F1" s="106"/>
@@ -14285,13 +14276,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="18">
         <v>42195</v>
@@ -14382,10 +14373,10 @@
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
@@ -14437,17 +14428,17 @@
         <v>1</v>
       </c>
       <c r="E9" s="111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="112"/>
       <c r="G9" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J9" s="105"/>
       <c r="K9" s="106"/>
@@ -14466,15 +14457,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="112"/>
       <c r="G10" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" s="105"/>
       <c r="K10" s="106"/>
@@ -14493,14 +14484,14 @@
         <v>3</v>
       </c>
       <c r="E11" s="111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="112"/>
       <c r="G11" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="104"/>
       <c r="J11" s="105"/>
@@ -14520,11 +14511,11 @@
         <v>4</v>
       </c>
       <c r="E12" s="111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="112"/>
       <c r="G12" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="104"/>
@@ -14545,11 +14536,11 @@
         <v>5</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="112"/>
       <c r="G13" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="104"/>
@@ -14570,11 +14561,11 @@
         <v>6</v>
       </c>
       <c r="E14" s="111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="112"/>
       <c r="G14" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="104"/>
@@ -14601,10 +14592,10 @@
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
@@ -14645,18 +14636,18 @@
         <v>1</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="58"/>
       <c r="G18" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="64"/>
       <c r="J18" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K18" s="56"/>
       <c r="O18" s="2"/>
@@ -14670,16 +14661,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="58"/>
       <c r="G19" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="54"/>
       <c r="J19" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="56"/>
       <c r="O19" s="2"/>
@@ -14696,10 +14687,10 @@
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="8"/>
@@ -14737,18 +14728,18 @@
         <v>1</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" s="56"/>
       <c r="O23" s="2"/>
@@ -14762,11 +14753,11 @@
         <v>2</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="58"/>
       <c r="G24" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="54"/>
@@ -14783,11 +14774,11 @@
         <v>3</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="54"/>
@@ -14804,11 +14795,11 @@
         <v>4</v>
       </c>
       <c r="E26" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="112"/>
       <c r="G26" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="54"/>
@@ -14825,18 +14816,18 @@
         <v>5</v>
       </c>
       <c r="E27" s="111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="112"/>
       <c r="G27" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K27" s="56"/>
       <c r="L27" s="2"/>

--- a/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
+++ b/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -442,18 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>介護製品用データベース開発</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>介護製品用データベース開発</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>介護製品用データベース開発</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>生産者情報テーブル</t>
     <rPh sb="0" eb="3">
       <t>セイサンシャ</t>
@@ -669,7 +657,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +724,13 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
@@ -1186,7 +1181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,6 +1380,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,48 +1479,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1517,7 +1506,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1525,6 +1517,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4295,8 +4299,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8841936" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="9648266" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -5944,8 +5948,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565865" y="5132743"/>
-          <a:ext cx="1255932" cy="529322"/>
+          <a:off x="1714500" y="5558118"/>
+          <a:ext cx="1367117" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -6661,8 +6665,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8841936" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="9648266" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -10355,7 +10359,7 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -10370,7 +10374,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -10388,10 +10392,10 @@
       <c r="O1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="91">
+      <c r="P1" s="70">
         <v>42195</v>
       </c>
-      <c r="Q1" s="92"/>
+      <c r="Q1" s="71"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -10408,11 +10412,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="93" t="s">
+      <c r="O2" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
@@ -10457,17 +10461,17 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -10478,15 +10482,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10497,15 +10501,15 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10553,19 +10557,19 @@
       <c r="A10" s="38"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
+      <c r="D10" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="39"/>
@@ -10574,17 +10578,17 @@
       <c r="A11" s="38"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="39"/>
@@ -10593,17 +10597,17 @@
       <c r="A12" s="38"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="39"/>
@@ -10613,17 +10617,17 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -10634,15 +10638,15 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -10653,15 +10657,15 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -10672,15 +10676,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -10691,15 +10695,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -10730,15 +10734,15 @@
       <c r="C19" s="15"/>
       <c r="D19" s="2"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="35"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10751,13 +10755,13 @@
       <c r="C20" s="15"/>
       <c r="D20" s="2"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="35"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10770,13 +10774,13 @@
       <c r="C21" s="15"/>
       <c r="D21" s="2"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
       <c r="M21" s="35"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10789,13 +10793,13 @@
       <c r="C22" s="15"/>
       <c r="D22" s="2"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="35"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10808,13 +10812,13 @@
       <c r="C23" s="15"/>
       <c r="D23" s="2"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
       <c r="M23" s="35"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10827,13 +10831,13 @@
       <c r="C24" s="15"/>
       <c r="D24" s="2"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
       <c r="M24" s="35"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10846,13 +10850,13 @@
       <c r="C25" s="15"/>
       <c r="D25" s="2"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="35"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -10908,14 +10912,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="65"/>
       <c r="J28" s="65"/>
-      <c r="K28" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="90"/>
+      <c r="K28" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="69"/>
       <c r="Q28" s="39"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -10927,20 +10931,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="73" t="s">
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="74"/>
-      <c r="M29" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="N29" s="75"/>
-      <c r="O29" s="85" t="s">
+      <c r="L29" s="86"/>
+      <c r="M29" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29" s="87"/>
+      <c r="O29" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="86"/>
+      <c r="P29" s="98"/>
       <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -10952,14 +10956,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="68"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="80"/>
       <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -10971,14 +10975,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="70"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="82"/>
       <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -10990,14 +10994,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="70"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="82"/>
       <c r="Q32" s="39"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11009,14 +11013,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="70"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="82"/>
       <c r="Q33" s="39"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11028,14 +11032,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="70"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="82"/>
       <c r="Q34" s="39"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11047,14 +11051,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="72"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="84"/>
       <c r="Q35" s="39"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11078,13 +11082,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F19:L25"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="E5:M7"/>
-    <mergeCell ref="D10:N12"/>
-    <mergeCell ref="E13:M17"/>
     <mergeCell ref="I30:J35"/>
     <mergeCell ref="O30:P35"/>
     <mergeCell ref="K29:L29"/>
@@ -11093,6 +11090,13 @@
     <mergeCell ref="M30:N35"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
+    <mergeCell ref="F19:L25"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="E5:M7"/>
+    <mergeCell ref="D10:N12"/>
+    <mergeCell ref="E13:M17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11111,7 +11115,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11126,30 +11130,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
       <c r="L1" s="52" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N1" s="52" t="s">
         <v>3</v>
@@ -11224,58 +11228,843 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
+      <c r="M6" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
       <c r="H7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
+      <c r="M7" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="113" t="str">
+        <f>処理1!D1</f>
+        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="str">
+        <f>処理1!M1</f>
+        <v>6.7.1</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="18">
+        <v>42195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -11882,7 +12671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -11890,7 +12679,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11905,33 +12694,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="113" t="str">
+        <f>処理1!D1</f>
+        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
+      </c>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="str">
+      <c r="M1" s="61" t="str">
         <f>処理1!M1</f>
         <v>6.7.1</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="63" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -12004,62 +12794,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="30" t="s">
+      <c r="I6" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="99" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="30" t="s">
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="30" t="s">
+      <c r="I7" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12644,797 +13430,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="61" t="str">
-        <f>処理1!M1</f>
-        <v>6.7.1</v>
-      </c>
-      <c r="N1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="18">
-        <v>42195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13454,7 +13460,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13469,25 +13475,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="113" t="str">
+        <f>処理1!D1</f>
+        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
+      </c>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
       <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
@@ -13568,62 +13575,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
+      <c r="I6" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
+      <c r="M6" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
       <c r="H7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
+      <c r="I7" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
+      <c r="M7" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -14208,17 +14215,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14237,8 +14244,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14253,30 +14260,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="113" t="str">
+        <f>処理1!D1</f>
+        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
+      </c>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
       <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>3</v>
@@ -14376,7 +14384,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
@@ -14398,21 +14406,21 @@
       <c r="D8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="110"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="110" t="s">
+      <c r="I8" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="2"/>
@@ -14427,21 +14435,21 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="112"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="25" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="104" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="105"/>
-      <c r="K9" s="106"/>
+      <c r="I9" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="2"/>
@@ -14456,19 +14464,19 @@
         <f t="shared" ref="D10:D14" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="111" t="s">
+      <c r="E10" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="112"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="25" t="s">
         <v>48</v>
       </c>
       <c r="H10" s="25"/>
-      <c r="I10" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="106"/>
+      <c r="I10" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="103"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="2"/>
@@ -14483,19 +14491,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="112"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="25" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="106"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="2"/>
@@ -14510,17 +14518,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="112"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="25" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="25"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="106"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="104"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="2"/>
@@ -14535,17 +14543,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="111" t="s">
+      <c r="E13" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="112"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="106"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="104"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="2"/>
@@ -14560,17 +14568,17 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="111" t="s">
+      <c r="E14" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="112"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="25" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="25"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="106"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="104"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="2"/>
@@ -14595,7 +14603,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
@@ -14647,7 +14655,7 @@
       </c>
       <c r="I18" s="64"/>
       <c r="J18" s="55" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K18" s="56"/>
       <c r="O18" s="2"/>
@@ -14670,7 +14678,7 @@
       <c r="H19" s="25"/>
       <c r="I19" s="54"/>
       <c r="J19" s="55" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K19" s="56"/>
       <c r="O19" s="2"/>
@@ -14690,7 +14698,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="8"/>
@@ -14732,14 +14740,14 @@
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>45</v>
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="55" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K23" s="56"/>
       <c r="O23" s="2"/>
@@ -14794,10 +14802,10 @@
       <c r="D26" s="28">
         <v>4</v>
       </c>
-      <c r="E26" s="111" t="s">
+      <c r="E26" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="112"/>
+      <c r="F26" s="111"/>
       <c r="G26" s="25" t="s">
         <v>47</v>
       </c>
@@ -14815,10 +14823,10 @@
       <c r="D27" s="28">
         <v>5</v>
       </c>
-      <c r="E27" s="111" t="s">
+      <c r="E27" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="112"/>
+      <c r="F27" s="111"/>
       <c r="G27" s="25" t="s">
         <v>47</v>
       </c>
@@ -14827,7 +14835,7 @@
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="55" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K27" s="56"/>
       <c r="L27" s="2"/>
@@ -14923,12 +14931,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E8:F8"/>
@@ -14937,11 +14944,12 @@
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
+++ b/内部設計/PM演習_内部設計書_矢吹研C班.xlsx
@@ -1380,42 +1380,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1479,6 +1443,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1488,7 +1494,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1506,10 +1512,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,18 +1529,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10360,7 +10360,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10392,10 +10392,10 @@
       <c r="O1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="70">
-        <v>42195</v>
-      </c>
-      <c r="Q1" s="71"/>
+      <c r="P1" s="91">
+        <v>42201</v>
+      </c>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -10412,11 +10412,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="73"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
@@ -10461,17 +10461,17 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -10482,15 +10482,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -10501,15 +10501,15 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -10557,19 +10557,19 @@
       <c r="A10" s="38"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="39"/>
@@ -10578,17 +10578,17 @@
       <c r="A11" s="38"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="39"/>
@@ -10597,17 +10597,17 @@
       <c r="A12" s="38"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="39"/>
@@ -10617,17 +10617,17 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -10638,15 +10638,15 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -10657,15 +10657,15 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -10676,15 +10676,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -10695,15 +10695,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -10734,15 +10734,15 @@
       <c r="C19" s="15"/>
       <c r="D19" s="2"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
       <c r="M19" s="35"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10755,13 +10755,13 @@
       <c r="C20" s="15"/>
       <c r="D20" s="2"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="35"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10774,13 +10774,13 @@
       <c r="C21" s="15"/>
       <c r="D21" s="2"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
       <c r="M21" s="35"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10793,13 +10793,13 @@
       <c r="C22" s="15"/>
       <c r="D22" s="2"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
       <c r="M22" s="35"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10812,13 +10812,13 @@
       <c r="C23" s="15"/>
       <c r="D23" s="2"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
       <c r="M23" s="35"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10831,13 +10831,13 @@
       <c r="C24" s="15"/>
       <c r="D24" s="2"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
       <c r="M24" s="35"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10850,13 +10850,13 @@
       <c r="C25" s="15"/>
       <c r="D25" s="2"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
       <c r="M25" s="35"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -10912,14 +10912,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="65"/>
       <c r="J28" s="65"/>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="69"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="90"/>
       <c r="Q28" s="39"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -10931,20 +10931,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="85" t="s">
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="86"/>
-      <c r="M29" s="87" t="s">
+      <c r="L29" s="74"/>
+      <c r="M29" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="N29" s="87"/>
-      <c r="O29" s="97" t="s">
+      <c r="N29" s="75"/>
+      <c r="O29" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="98"/>
+      <c r="P29" s="86"/>
       <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -10956,14 +10956,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="68"/>
       <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -10975,14 +10975,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="82"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="70"/>
       <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -10994,14 +10994,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="82"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="70"/>
       <c r="Q32" s="39"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11013,14 +11013,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="82"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="70"/>
       <c r="Q33" s="39"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11032,14 +11032,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="82"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="70"/>
       <c r="Q34" s="39"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11051,14 +11051,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="84"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="72"/>
       <c r="Q35" s="39"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11082,6 +11082,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F19:L25"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="E5:M7"/>
+    <mergeCell ref="D10:N12"/>
+    <mergeCell ref="E13:M17"/>
     <mergeCell ref="I30:J35"/>
     <mergeCell ref="O30:P35"/>
     <mergeCell ref="K29:L29"/>
@@ -11090,13 +11097,6 @@
     <mergeCell ref="M30:N35"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
-    <mergeCell ref="F19:L25"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="E5:M7"/>
-    <mergeCell ref="D10:N12"/>
-    <mergeCell ref="E13:M17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11115,7 +11115,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11130,25 +11130,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="113" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
       <c r="G1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="52" t="s">
         <v>2</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>36</v>
       </c>
       <c r="P1" s="18">
-        <v>42195</v>
+        <v>42201</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11228,58 +11228,843 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="93" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
       <c r="L6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="93" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
       <c r="L7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="109" t="s">
+      <c r="M7" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="str">
+        <f>処理1!D1</f>
+        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
+      </c>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="str">
+        <f>処理1!M1</f>
+        <v>6.7.1</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="18">
+        <v>42201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -11886,7 +12671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -11894,7 +12679,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11909,41 +12694,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="113" t="str">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="str">
         <f>処理1!D1</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="str">
+      <c r="M1" s="61" t="str">
         <f>処理1!M1</f>
         <v>6.7.1</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="63" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="P1" s="18">
-        <v>42195</v>
+        <v>42201</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12009,62 +12794,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="30" t="s">
+      <c r="I6" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="30" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="30" t="s">
+      <c r="I7" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -12649,798 +13430,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="113" t="str">
-        <f>処理1!D1</f>
-        <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
-      </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="61" t="str">
-        <f>処理1!M1</f>
-        <v>6.7.1</v>
-      </c>
-      <c r="N1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="18">
-        <v>42195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13460,7 +13460,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13475,26 +13475,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="113" t="str">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="str">
         <f>処理1!D1</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
       <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>36</v>
       </c>
       <c r="P1" s="18">
-        <v>42195</v>
+        <v>42201</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13575,62 +13575,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="93" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="109" t="s">
+      <c r="I6" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
       <c r="L6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="93" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="109" t="s">
+      <c r="I7" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
       <c r="L7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="109" t="s">
+      <c r="M7" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -14215,17 +14215,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14245,7 +14245,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14260,26 +14260,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="113" t="str">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="str">
         <f>処理1!D1</f>
         <v>QRコードを使い，野菜の詳細情報を伝えるシステム</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
       <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>36</v>
       </c>
       <c r="P1" s="18">
-        <v>42195</v>
+        <v>42201</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15">
@@ -14435,21 +14435,21 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="111"/>
+      <c r="F9" s="115"/>
       <c r="G9" s="25" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="102" t="s">
+      <c r="I9" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="106"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="2"/>
@@ -14464,19 +14464,19 @@
         <f t="shared" ref="D10:D14" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="111"/>
+      <c r="F10" s="115"/>
       <c r="G10" s="25" t="s">
         <v>48</v>
       </c>
       <c r="H10" s="25"/>
-      <c r="I10" s="102" t="s">
+      <c r="I10" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="106"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="2"/>
@@ -14491,19 +14491,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="111"/>
+      <c r="F11" s="115"/>
       <c r="G11" s="25" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="106"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="2"/>
@@ -14518,17 +14518,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="111"/>
+      <c r="F12" s="115"/>
       <c r="G12" s="25" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="25"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="104"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="2"/>
@@ -14543,17 +14543,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="111"/>
+      <c r="F13" s="115"/>
       <c r="G13" s="25" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="104"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="106"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="2"/>
@@ -14568,17 +14568,17 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="111"/>
+      <c r="F14" s="115"/>
       <c r="G14" s="25" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="25"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="104"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="2"/>
@@ -14802,10 +14802,10 @@
       <c r="D26" s="28">
         <v>4</v>
       </c>
-      <c r="E26" s="110" t="s">
+      <c r="E26" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="111"/>
+      <c r="F26" s="115"/>
       <c r="G26" s="25" t="s">
         <v>47</v>
       </c>
@@ -14823,10 +14823,10 @@
       <c r="D27" s="28">
         <v>5</v>
       </c>
-      <c r="E27" s="110" t="s">
+      <c r="E27" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="111"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="25" t="s">
         <v>47</v>
       </c>
@@ -14931,11 +14931,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E8:F8"/>
@@ -14944,12 +14945,11 @@
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
